--- a/data/roster.xlsx
+++ b/data/roster.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC2409\Desktop\이영준\롯데면세점\링크관리\250821\4시24분\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram\Desktop\이서호\제안서\롯데 면세점\참여자 명단\조편성\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D67E826-530D-46E0-B52C-5359889451F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB69CA04-657C-4F64-87BD-A5EA20FAC873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7D76603D-15BE-4686-A7F1-28F7979D017A}"/>
   </bookViews>
@@ -19,13 +19,22 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3차수'!$A$4:$N$756</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">참석인원명부_2차수!$A$4:$E$77</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'3차수'!$A$1:$X$756</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'3차수'!$A$1:$X$753</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">참석인원명부_2차수!$A$1:$E$77</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -6843,9 +6852,6 @@
     <t>720214-1063610</t>
   </si>
   <si>
-    <t>남궁표</t>
-  </si>
-  <si>
     <t>이정민</t>
   </si>
   <si>
@@ -7225,6 +7231,9 @@
   <si>
     <t>M</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E-commerce부문</t>
   </si>
 </sst>
 </file>
@@ -7933,8 +7942,8 @@
   </sheetPr>
   <dimension ref="A1:X756"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A190" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="C210" sqref="C210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7963,10 +7972,10 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="G1" s="36" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="22.2" customHeight="1">
@@ -7979,10 +7988,10 @@
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="36" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="H2" s="40" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
@@ -7996,7 +8005,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="36" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -8017,7 +8026,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="D4" s="45" t="s">
         <v>4</v>
@@ -8035,7 +8044,7 @@
         <v>7</v>
       </c>
       <c r="I4" s="46" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="J4" s="46" t="s">
         <v>2201</v>
@@ -8044,13 +8053,13 @@
         <v>8</v>
       </c>
       <c r="L4" s="8" t="s">
+        <v>2245</v>
+      </c>
+      <c r="M4" s="8" t="s">
         <v>2246</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="N4" s="8" t="s">
         <v>2247</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>2248</v>
       </c>
       <c r="Q4" s="8" t="s">
         <v>9</v>
@@ -11396,7 +11405,7 @@
         <v>22</v>
       </c>
       <c r="I88" s="13" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="J88" s="31"/>
       <c r="K88" s="32" t="str">
@@ -11404,13 +11413,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L88" s="39" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="M88" s="39" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="N88" s="39" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="89" spans="1:24" ht="31.2" hidden="1">
@@ -11437,7 +11446,7 @@
         <v>22</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="J89" s="31" t="s">
         <v>1232</v>
@@ -11471,7 +11480,7 @@
         <v>22</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="J90" s="31" t="s">
         <v>1245</v>
@@ -11505,7 +11514,7 @@
         <v>22</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="J91" s="31" t="s">
         <v>1300</v>
@@ -11539,7 +11548,7 @@
         <v>19</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="J92" s="31" t="s">
         <v>1305</v>
@@ -11586,7 +11595,7 @@
         <v>22</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="J93" s="31" t="s">
         <v>1345</v>
@@ -11620,7 +11629,7 @@
         <v>22</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="J94" s="31" t="s">
         <v>1404</v>
@@ -11667,7 +11676,7 @@
         <v>22</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="J95" s="31" t="s">
         <v>1425</v>
@@ -11701,7 +11710,7 @@
         <v>22</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="J96" s="31" t="s">
         <v>1434</v>
@@ -11748,7 +11757,7 @@
         <v>22</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="J97" s="31" t="s">
         <v>1478</v>
@@ -11782,7 +11791,7 @@
         <v>19</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="J98" s="31" t="s">
         <v>1502</v>
@@ -11816,7 +11825,7 @@
         <v>22</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="J99" s="31" t="s">
         <v>1523</v>
@@ -11850,7 +11859,7 @@
         <v>19</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="J100" s="31" t="s">
         <v>1538</v>
@@ -11884,7 +11893,7 @@
         <v>22</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="J101" s="31" t="s">
         <v>1544</v>
@@ -11931,7 +11940,7 @@
         <v>22</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="J102" s="31" t="s">
         <v>1569</v>
@@ -11978,7 +11987,7 @@
         <v>22</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="J103" s="31" t="s">
         <v>1586</v>
@@ -12012,7 +12021,7 @@
         <v>22</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="J104" s="31" t="s">
         <v>1593</v>
@@ -12046,7 +12055,7 @@
         <v>22</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="J105" s="31" t="s">
         <v>1602</v>
@@ -12080,7 +12089,7 @@
         <v>19</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="J106" s="31" t="s">
         <v>1639</v>
@@ -12276,10 +12285,10 @@
         <v>22</v>
       </c>
       <c r="I111" s="15" t="s">
+        <v>2241</v>
+      </c>
+      <c r="J111" s="15" t="s">
         <v>2242</v>
-      </c>
-      <c r="J111" s="15" t="s">
-        <v>2243</v>
       </c>
       <c r="K111" s="32" t="str">
         <f t="shared" si="10"/>
@@ -13532,7 +13541,7 @@
         <v>55</v>
       </c>
       <c r="F147" s="30" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="G147" s="30" t="s">
         <v>879</v>
@@ -13541,7 +13550,7 @@
         <v>19</v>
       </c>
       <c r="I147" s="13" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="J147" s="31"/>
       <c r="K147" s="32" t="str">
@@ -13549,13 +13558,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L147" s="37" t="s">
+        <v>2248</v>
+      </c>
+      <c r="M147" s="37" t="s">
+        <v>2248</v>
+      </c>
+      <c r="N147" s="37" t="s">
         <v>2249</v>
-      </c>
-      <c r="M147" s="37" t="s">
-        <v>2249</v>
-      </c>
-      <c r="N147" s="37" t="s">
-        <v>2250</v>
       </c>
     </row>
     <row r="148" spans="1:24" ht="17.399999999999999">
@@ -13584,7 +13593,7 @@
         <v>22</v>
       </c>
       <c r="I148" s="13" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="J148" s="31"/>
       <c r="K148" s="32" t="str">
@@ -13592,13 +13601,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L148" s="37" t="s">
+        <v>2250</v>
+      </c>
+      <c r="M148" s="37" t="s">
         <v>2251</v>
       </c>
-      <c r="M148" s="37" t="s">
+      <c r="N148" s="37" t="s">
         <v>2252</v>
-      </c>
-      <c r="N148" s="37" t="s">
-        <v>2253</v>
       </c>
     </row>
     <row r="149" spans="1:24" ht="31.2" hidden="1">
@@ -13625,7 +13634,7 @@
         <v>22</v>
       </c>
       <c r="I149" s="5" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="J149" s="31" t="s">
         <v>1009</v>
@@ -13661,7 +13670,7 @@
         <v>22</v>
       </c>
       <c r="I150" s="13" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="J150" s="31"/>
       <c r="K150" s="32" t="str">
@@ -13669,13 +13678,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L150" s="37" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="M150" s="37" t="s">
+        <v>2255</v>
+      </c>
+      <c r="N150" s="37" t="s">
         <v>2256</v>
-      </c>
-      <c r="N150" s="37" t="s">
-        <v>2257</v>
       </c>
     </row>
     <row r="151" spans="1:24" ht="17.399999999999999">
@@ -13704,7 +13713,7 @@
         <v>22</v>
       </c>
       <c r="I151" s="13" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="J151" s="31"/>
       <c r="K151" s="32" t="str">
@@ -13712,13 +13721,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L151" s="37" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="M151" s="37" t="s">
+        <v>2257</v>
+      </c>
+      <c r="N151" s="37" t="s">
         <v>2258</v>
-      </c>
-      <c r="N151" s="37" t="s">
-        <v>2259</v>
       </c>
     </row>
     <row r="152" spans="1:24" ht="17.399999999999999">
@@ -13747,7 +13756,7 @@
         <v>22</v>
       </c>
       <c r="I152" s="13" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="J152" s="31"/>
       <c r="K152" s="32" t="str">
@@ -13755,13 +13764,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L152" s="37" t="s">
+        <v>2250</v>
+      </c>
+      <c r="M152" s="37" t="s">
         <v>2251</v>
       </c>
-      <c r="M152" s="37" t="s">
-        <v>2252</v>
-      </c>
       <c r="N152" s="37" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="153" spans="1:24" ht="17.399999999999999">
@@ -13781,7 +13790,7 @@
         <v>39</v>
       </c>
       <c r="F153" s="30" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="G153" s="30" t="s">
         <v>879</v>
@@ -13790,7 +13799,7 @@
         <v>19</v>
       </c>
       <c r="I153" s="13" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="J153" s="31"/>
       <c r="K153" s="32" t="str">
@@ -13798,13 +13807,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L153" s="37" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="M153" s="37" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="N153" s="37" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="154" spans="1:24" ht="17.399999999999999">
@@ -13833,7 +13842,7 @@
         <v>22</v>
       </c>
       <c r="I154" s="13" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="J154" s="31"/>
       <c r="K154" s="32" t="str">
@@ -13841,13 +13850,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L154" s="37" t="s">
+        <v>2250</v>
+      </c>
+      <c r="M154" s="37" t="s">
         <v>2251</v>
       </c>
-      <c r="M154" s="37" t="s">
-        <v>2252</v>
-      </c>
       <c r="N154" s="37" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="155" spans="1:24" s="7" customFormat="1" ht="17.399999999999999">
@@ -13876,7 +13885,7 @@
         <v>22</v>
       </c>
       <c r="I155" s="13" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="J155" s="31"/>
       <c r="K155" s="32" t="str">
@@ -13884,13 +13893,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L155" s="37" t="s">
+        <v>2250</v>
+      </c>
+      <c r="M155" s="37" t="s">
         <v>2251</v>
       </c>
-      <c r="M155" s="37" t="s">
-        <v>2252</v>
-      </c>
       <c r="N155" s="37" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="O155" s="3"/>
       <c r="P155" s="3"/>
@@ -13929,7 +13938,7 @@
         <v>22</v>
       </c>
       <c r="I156" s="13" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="J156" s="31"/>
       <c r="K156" s="32" t="str">
@@ -13937,13 +13946,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L156" s="39" t="s">
+        <v>2253</v>
+      </c>
+      <c r="M156" s="39" t="s">
+        <v>2251</v>
+      </c>
+      <c r="N156" s="39" t="s">
         <v>2254</v>
-      </c>
-      <c r="M156" s="39" t="s">
-        <v>2252</v>
-      </c>
-      <c r="N156" s="39" t="s">
-        <v>2255</v>
       </c>
     </row>
     <row r="157" spans="1:24" ht="17.399999999999999">
@@ -13972,7 +13981,7 @@
         <v>22</v>
       </c>
       <c r="I157" s="13" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="J157" s="31"/>
       <c r="K157" s="32" t="str">
@@ -13980,13 +13989,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L157" s="37" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="M157" s="37" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="N157" s="37" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="158" spans="1:24" ht="17.399999999999999">
@@ -14015,7 +14024,7 @@
         <v>22</v>
       </c>
       <c r="I158" s="13" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="J158" s="31"/>
       <c r="K158" s="32" t="str">
@@ -14023,13 +14032,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L158" s="37" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="M158" s="37" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="N158" s="37" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="159" spans="1:24" ht="17.399999999999999">
@@ -14058,7 +14067,7 @@
         <v>19</v>
       </c>
       <c r="I159" s="13" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="J159" s="31"/>
       <c r="K159" s="32" t="str">
@@ -14066,13 +14075,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L159" s="37" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="M159" s="37" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="N159" s="37" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="160" spans="1:24" ht="31.2" hidden="1">
@@ -14099,7 +14108,7 @@
         <v>19</v>
       </c>
       <c r="I160" s="5" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="J160" s="31" t="s">
         <v>1187</v>
@@ -14135,7 +14144,7 @@
         <v>22</v>
       </c>
       <c r="I161" s="13" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="J161" s="31"/>
       <c r="K161" s="32" t="str">
@@ -14143,13 +14152,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L161" s="37" t="s">
+        <v>2250</v>
+      </c>
+      <c r="M161" s="37" t="s">
         <v>2251</v>
       </c>
-      <c r="M161" s="37" t="s">
-        <v>2252</v>
-      </c>
       <c r="N161" s="37" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="162" spans="1:14" ht="17.399999999999999">
@@ -14178,7 +14187,7 @@
         <v>22</v>
       </c>
       <c r="I162" s="13" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="J162" s="31"/>
       <c r="K162" s="32" t="str">
@@ -14186,13 +14195,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L162" s="37" t="s">
+        <v>2250</v>
+      </c>
+      <c r="M162" s="37" t="s">
         <v>2251</v>
       </c>
-      <c r="M162" s="37" t="s">
-        <v>2252</v>
-      </c>
       <c r="N162" s="37" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="163" spans="1:14" ht="17.399999999999999">
@@ -14221,7 +14230,7 @@
         <v>19</v>
       </c>
       <c r="I163" s="13" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="J163" s="31"/>
       <c r="K163" s="32" t="str">
@@ -14229,13 +14238,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L163" s="39" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="M163" s="39" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="N163" s="39" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="164" spans="1:14" ht="17.399999999999999">
@@ -14264,7 +14273,7 @@
         <v>19</v>
       </c>
       <c r="I164" s="13" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="J164" s="31"/>
       <c r="K164" s="32" t="str">
@@ -14272,13 +14281,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L164" s="39" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="M164" s="39" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="N164" s="39" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="165" spans="1:14" ht="17.399999999999999">
@@ -14307,7 +14316,7 @@
         <v>22</v>
       </c>
       <c r="I165" s="13" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="J165" s="31"/>
       <c r="K165" s="32" t="str">
@@ -14315,13 +14324,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L165" s="39" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="M165" s="39" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="N165" s="39" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="166" spans="1:14" ht="17.399999999999999">
@@ -14350,7 +14359,7 @@
         <v>22</v>
       </c>
       <c r="I166" s="13" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="J166" s="31"/>
       <c r="K166" s="32" t="str">
@@ -14358,13 +14367,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L166" s="39" t="s">
+        <v>2250</v>
+      </c>
+      <c r="M166" s="39" t="s">
         <v>2251</v>
       </c>
-      <c r="M166" s="39" t="s">
-        <v>2252</v>
-      </c>
       <c r="N166" s="39" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="167" spans="1:14" ht="17.399999999999999">
@@ -14393,7 +14402,7 @@
         <v>22</v>
       </c>
       <c r="I167" s="13" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="J167" s="31"/>
       <c r="K167" s="32" t="str">
@@ -14401,13 +14410,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L167" s="39" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="M167" s="39" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="N167" s="39" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="168" spans="1:14" ht="17.399999999999999">
@@ -14436,7 +14445,7 @@
         <v>22</v>
       </c>
       <c r="I168" s="13" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="J168" s="31"/>
       <c r="K168" s="32" t="str">
@@ -14444,13 +14453,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L168" s="37" t="s">
+        <v>2250</v>
+      </c>
+      <c r="M168" s="37" t="s">
         <v>2251</v>
       </c>
-      <c r="M168" s="37" t="s">
-        <v>2252</v>
-      </c>
       <c r="N168" s="37" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="169" spans="1:14" ht="17.399999999999999">
@@ -14479,7 +14488,7 @@
         <v>22</v>
       </c>
       <c r="I169" s="13" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="J169" s="31"/>
       <c r="K169" s="32" t="str">
@@ -14487,13 +14496,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L169" s="37" t="s">
+        <v>2250</v>
+      </c>
+      <c r="M169" s="37" t="s">
         <v>2251</v>
       </c>
-      <c r="M169" s="37" t="s">
-        <v>2252</v>
-      </c>
       <c r="N169" s="37" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="170" spans="1:14" ht="31.2" hidden="1">
@@ -14520,7 +14529,7 @@
         <v>19</v>
       </c>
       <c r="I170" s="5" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="J170" s="31" t="s">
         <v>1317</v>
@@ -14556,7 +14565,7 @@
         <v>19</v>
       </c>
       <c r="I171" s="13" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="J171" s="31"/>
       <c r="K171" s="32" t="str">
@@ -14564,13 +14573,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L171" s="37" t="s">
+        <v>2250</v>
+      </c>
+      <c r="M171" s="37" t="s">
         <v>2251</v>
       </c>
-      <c r="M171" s="37" t="s">
-        <v>2252</v>
-      </c>
       <c r="N171" s="37" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="172" spans="1:14" ht="17.399999999999999">
@@ -14590,7 +14599,7 @@
         <v>44</v>
       </c>
       <c r="F172" s="30" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="G172" s="30" t="s">
         <v>879</v>
@@ -14599,7 +14608,7 @@
         <v>22</v>
       </c>
       <c r="I172" s="13" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="J172" s="31"/>
       <c r="K172" s="32" t="str">
@@ -14607,10 +14616,10 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L172" s="37" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="M172" s="37" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="N172" s="37" t="s">
         <v>356</v>
@@ -14642,7 +14651,7 @@
         <v>19</v>
       </c>
       <c r="I173" s="13" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="J173" s="31"/>
       <c r="K173" s="32" t="str">
@@ -14650,13 +14659,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L173" s="39" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="M173" s="39" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="N173" s="39" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="174" spans="1:14" ht="17.399999999999999">
@@ -14676,7 +14685,7 @@
         <v>31</v>
       </c>
       <c r="F174" s="30" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="G174" s="30" t="s">
         <v>879</v>
@@ -14685,7 +14694,7 @@
         <v>22</v>
       </c>
       <c r="I174" s="13" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="J174" s="31"/>
       <c r="K174" s="32" t="str">
@@ -14693,13 +14702,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L174" s="39" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="M174" s="39" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="N174" s="39" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="175" spans="1:14" ht="17.399999999999999">
@@ -14728,7 +14737,7 @@
         <v>19</v>
       </c>
       <c r="I175" s="13" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="J175" s="31"/>
       <c r="K175" s="32" t="str">
@@ -14736,13 +14745,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L175" s="37" t="s">
+        <v>2250</v>
+      </c>
+      <c r="M175" s="37" t="s">
         <v>2251</v>
       </c>
-      <c r="M175" s="37" t="s">
-        <v>2252</v>
-      </c>
       <c r="N175" s="37" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="176" spans="1:14" ht="17.399999999999999">
@@ -14762,7 +14771,7 @@
         <v>24</v>
       </c>
       <c r="F176" s="30" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="G176" s="30" t="s">
         <v>879</v>
@@ -14771,7 +14780,7 @@
         <v>22</v>
       </c>
       <c r="I176" s="13" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="J176" s="31"/>
       <c r="K176" s="32" t="str">
@@ -14779,13 +14788,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L176" s="37" t="s">
+        <v>2250</v>
+      </c>
+      <c r="M176" s="37" t="s">
         <v>2251</v>
       </c>
-      <c r="M176" s="37" t="s">
-        <v>2252</v>
-      </c>
       <c r="N176" s="37" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="177" spans="1:24" ht="17.399999999999999">
@@ -14814,7 +14823,7 @@
         <v>22</v>
       </c>
       <c r="I177" s="13" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="J177" s="31"/>
       <c r="K177" s="32" t="str">
@@ -14822,13 +14831,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L177" s="37" t="s">
+        <v>2250</v>
+      </c>
+      <c r="M177" s="37" t="s">
         <v>2251</v>
       </c>
-      <c r="M177" s="37" t="s">
-        <v>2252</v>
-      </c>
       <c r="N177" s="37" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="178" spans="1:24" s="7" customFormat="1" ht="17.399999999999999">
@@ -14857,7 +14866,7 @@
         <v>22</v>
       </c>
       <c r="I178" s="13" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="J178" s="31"/>
       <c r="K178" s="32" t="str">
@@ -14865,13 +14874,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L178" s="37" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="M178" s="37" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="N178" s="37" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="O178" s="3"/>
       <c r="P178" s="3"/>
@@ -14892,7 +14901,7 @@
         <v>3</v>
       </c>
       <c r="C179" s="29">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D179" s="30" t="s">
         <v>296</v>
@@ -14910,7 +14919,7 @@
         <v>19</v>
       </c>
       <c r="I179" s="13" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="J179" s="31"/>
       <c r="K179" s="32" t="str">
@@ -14918,13 +14927,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L179" s="37" t="s">
+        <v>2250</v>
+      </c>
+      <c r="M179" s="37" t="s">
         <v>2251</v>
       </c>
-      <c r="M179" s="37" t="s">
-        <v>2252</v>
-      </c>
       <c r="N179" s="37" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="180" spans="1:24" ht="17.399999999999999">
@@ -14953,7 +14962,7 @@
         <v>22</v>
       </c>
       <c r="I180" s="13" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="J180" s="31"/>
       <c r="K180" s="32" t="str">
@@ -14961,13 +14970,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L180" s="37" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="M180" s="37" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="N180" s="37" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="181" spans="1:24" ht="17.399999999999999">
@@ -14981,10 +14990,10 @@
         <v>5</v>
       </c>
       <c r="D181" s="30" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="E181" s="30" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="F181" s="30" t="s">
         <v>125</v>
@@ -14996,7 +15005,7 @@
         <v>22</v>
       </c>
       <c r="I181" s="13" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="J181" s="31"/>
       <c r="K181" s="32" t="str">
@@ -15004,13 +15013,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L181" s="37" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="M181" s="37" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="N181" s="37" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="182" spans="1:24" s="11" customFormat="1" ht="17.399999999999999">
@@ -15030,7 +15039,7 @@
         <v>44</v>
       </c>
       <c r="F182" s="30" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="G182" s="30" t="s">
         <v>879</v>
@@ -15039,7 +15048,7 @@
         <v>19</v>
       </c>
       <c r="I182" s="13" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="J182" s="31"/>
       <c r="K182" s="32" t="str">
@@ -15047,13 +15056,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L182" s="37" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="M182" s="37" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="N182" s="37" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="O182" s="3"/>
       <c r="P182" s="3"/>
@@ -15092,7 +15101,7 @@
         <v>22</v>
       </c>
       <c r="I183" s="13" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="J183" s="31"/>
       <c r="K183" s="32" t="str">
@@ -15100,13 +15109,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L183" s="37" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="M183" s="37" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="N183" s="37" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="184" spans="1:24" s="7" customFormat="1" ht="17.399999999999999">
@@ -15135,7 +15144,7 @@
         <v>22</v>
       </c>
       <c r="I184" s="13" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="J184" s="31"/>
       <c r="K184" s="32" t="str">
@@ -15143,13 +15152,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L184" s="37" t="s">
+        <v>2250</v>
+      </c>
+      <c r="M184" s="37" t="s">
         <v>2251</v>
       </c>
-      <c r="M184" s="37" t="s">
-        <v>2252</v>
-      </c>
       <c r="N184" s="37" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="O184" s="3"/>
       <c r="P184" s="3"/>
@@ -15179,7 +15188,7 @@
         <v>44</v>
       </c>
       <c r="F185" s="30" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="G185" s="30" t="s">
         <v>879</v>
@@ -15188,7 +15197,7 @@
         <v>22</v>
       </c>
       <c r="I185" s="13" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="J185" s="31"/>
       <c r="K185" s="32" t="str">
@@ -15196,13 +15205,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L185" s="39" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="M185" s="39" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="N185" s="39" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="186" spans="1:24" ht="17.399999999999999">
@@ -15231,7 +15240,7 @@
         <v>22</v>
       </c>
       <c r="I186" s="13" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="J186" s="31"/>
       <c r="K186" s="32" t="str">
@@ -15239,13 +15248,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L186" s="37" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="M186" s="37" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="N186" s="37" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="187" spans="1:24" ht="17.399999999999999">
@@ -15274,7 +15283,7 @@
         <v>19</v>
       </c>
       <c r="I187" s="13" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="J187" s="31"/>
       <c r="K187" s="32" t="str">
@@ -15282,13 +15291,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L187" s="39" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="M187" s="39" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="N187" s="39" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="188" spans="1:24" ht="17.399999999999999">
@@ -15317,7 +15326,7 @@
         <v>22</v>
       </c>
       <c r="I188" s="13" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="J188" s="31"/>
       <c r="K188" s="32" t="str">
@@ -15325,13 +15334,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L188" s="37" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="M188" s="37" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="N188" s="37" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="189" spans="1:24" ht="17.399999999999999">
@@ -15360,7 +15369,7 @@
         <v>22</v>
       </c>
       <c r="I189" s="13" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="J189" s="31"/>
       <c r="K189" s="32" t="str">
@@ -15368,13 +15377,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L189" s="37" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="M189" s="37" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="N189" s="37" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="190" spans="1:24" ht="17.399999999999999">
@@ -15403,7 +15412,7 @@
         <v>19</v>
       </c>
       <c r="I190" s="13" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="J190" s="31"/>
       <c r="K190" s="32" t="str">
@@ -15411,13 +15420,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L190" s="37" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="M190" s="37" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="N190" s="37" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="191" spans="1:24" s="7" customFormat="1" ht="17.399999999999999">
@@ -15446,7 +15455,7 @@
         <v>22</v>
       </c>
       <c r="I191" s="13" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="J191" s="31"/>
       <c r="K191" s="32" t="str">
@@ -15454,13 +15463,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L191" s="37" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="M191" s="37" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="N191" s="37" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="O191" s="3"/>
       <c r="P191" s="3"/>
@@ -15490,7 +15499,7 @@
         <v>31</v>
       </c>
       <c r="F192" s="30" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="G192" s="30" t="s">
         <v>879</v>
@@ -15499,7 +15508,7 @@
         <v>19</v>
       </c>
       <c r="I192" s="13" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="J192" s="31"/>
       <c r="K192" s="32" t="str">
@@ -15507,13 +15516,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L192" s="37" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="M192" s="37" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="N192" s="37" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="O192" s="3"/>
       <c r="P192" s="3"/>
@@ -15552,7 +15561,7 @@
         <v>22</v>
       </c>
       <c r="I193" s="13" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="J193" s="31"/>
       <c r="K193" s="32" t="str">
@@ -15560,13 +15569,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L193" s="37" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="M193" s="37" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="N193" s="37" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="194" spans="1:14" ht="17.399999999999999">
@@ -15586,7 +15595,7 @@
         <v>24</v>
       </c>
       <c r="F194" s="30" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="G194" s="30" t="s">
         <v>879</v>
@@ -15595,7 +15604,7 @@
         <v>19</v>
       </c>
       <c r="I194" s="13" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="J194" s="31"/>
       <c r="K194" s="32" t="str">
@@ -15603,13 +15612,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L194" s="39" t="s">
+        <v>2250</v>
+      </c>
+      <c r="M194" s="39" t="s">
         <v>2251</v>
       </c>
-      <c r="M194" s="39" t="s">
-        <v>2252</v>
-      </c>
       <c r="N194" s="39" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="195" spans="1:14" ht="17.399999999999999">
@@ -15629,7 +15638,7 @@
         <v>55</v>
       </c>
       <c r="F195" s="30" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="G195" s="30" t="s">
         <v>879</v>
@@ -15638,7 +15647,7 @@
         <v>22</v>
       </c>
       <c r="I195" s="13" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="J195" s="31"/>
       <c r="K195" s="32" t="str">
@@ -15646,13 +15655,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L195" s="37" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="M195" s="37" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="N195" s="37" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="196" spans="1:14" ht="17.399999999999999">
@@ -15681,7 +15690,7 @@
         <v>22</v>
       </c>
       <c r="I196" s="13" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="J196" s="31"/>
       <c r="K196" s="32" t="str">
@@ -15689,13 +15698,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L196" s="37" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="M196" s="37" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="N196" s="37" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="197" spans="1:14" ht="17.399999999999999">
@@ -15724,7 +15733,7 @@
         <v>19</v>
       </c>
       <c r="I197" s="13" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="J197" s="31"/>
       <c r="K197" s="32" t="str">
@@ -15732,13 +15741,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L197" s="37" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="M197" s="37" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="N197" s="37" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="198" spans="1:14" ht="17.399999999999999">
@@ -15767,7 +15776,7 @@
         <v>19</v>
       </c>
       <c r="I198" s="13" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="J198" s="31"/>
       <c r="K198" s="32" t="str">
@@ -15775,13 +15784,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L198" s="37" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="M198" s="37" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="N198" s="37" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="199" spans="1:14" ht="17.399999999999999">
@@ -15801,7 +15810,7 @@
         <v>39</v>
       </c>
       <c r="F199" s="30" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="G199" s="30" t="s">
         <v>920</v>
@@ -15810,7 +15819,7 @@
         <v>19</v>
       </c>
       <c r="I199" s="13" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="J199" s="31"/>
       <c r="K199" s="32" t="str">
@@ -15818,13 +15827,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L199" s="39" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="M199" s="39" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="N199" s="39" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="200" spans="1:14" ht="31.2" hidden="1">
@@ -15887,7 +15896,7 @@
         <v>22</v>
       </c>
       <c r="I201" s="13" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="J201" s="31"/>
       <c r="K201" s="32" t="str">
@@ -15895,13 +15904,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L201" s="39" t="s">
+        <v>2250</v>
+      </c>
+      <c r="M201" s="39" t="s">
         <v>2251</v>
       </c>
-      <c r="M201" s="39" t="s">
-        <v>2252</v>
-      </c>
       <c r="N201" s="39" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="202" spans="1:14" ht="17.399999999999999">
@@ -15930,7 +15939,7 @@
         <v>22</v>
       </c>
       <c r="I202" s="13" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="J202" s="31"/>
       <c r="K202" s="32" t="str">
@@ -15938,13 +15947,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L202" s="37" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="M202" s="37" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="N202" s="37" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="203" spans="1:14" ht="17.399999999999999">
@@ -15973,7 +15982,7 @@
         <v>22</v>
       </c>
       <c r="I203" s="13" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="J203" s="31"/>
       <c r="K203" s="32" t="str">
@@ -15981,13 +15990,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L203" s="39" t="s">
+        <v>2250</v>
+      </c>
+      <c r="M203" s="39" t="s">
         <v>2251</v>
       </c>
-      <c r="M203" s="39" t="s">
-        <v>2252</v>
-      </c>
       <c r="N203" s="39" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="204" spans="1:14" ht="17.399999999999999">
@@ -16016,7 +16025,7 @@
         <v>22</v>
       </c>
       <c r="I204" s="13" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="J204" s="31"/>
       <c r="K204" s="32" t="str">
@@ -16024,13 +16033,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L204" s="39" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="M204" s="39" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="N204" s="39" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="205" spans="1:14" ht="17.399999999999999">
@@ -16059,7 +16068,7 @@
         <v>19</v>
       </c>
       <c r="I205" s="13" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="J205" s="31"/>
       <c r="K205" s="32" t="str">
@@ -16067,13 +16076,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L205" s="37" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="M205" s="37" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="N205" s="37" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="206" spans="1:14" ht="17.399999999999999">
@@ -16087,13 +16096,13 @@
         <v>8</v>
       </c>
       <c r="D206" s="30" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="E206" s="30" t="s">
         <v>55</v>
       </c>
       <c r="F206" s="30" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="G206" s="30" t="s">
         <v>879</v>
@@ -16102,7 +16111,7 @@
         <v>19</v>
       </c>
       <c r="I206" s="13" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="J206" s="31"/>
       <c r="K206" s="32" t="str">
@@ -16110,13 +16119,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L206" s="37" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="M206" s="37" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="N206" s="37" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="207" spans="1:14" ht="17.399999999999999">
@@ -16145,7 +16154,7 @@
         <v>22</v>
       </c>
       <c r="I207" s="13" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="J207" s="31"/>
       <c r="K207" s="32" t="str">
@@ -16153,13 +16162,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L207" s="37" t="s">
+        <v>2250</v>
+      </c>
+      <c r="M207" s="37" t="s">
         <v>2251</v>
       </c>
-      <c r="M207" s="37" t="s">
-        <v>2252</v>
-      </c>
       <c r="N207" s="37" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="208" spans="1:14" ht="17.399999999999999">
@@ -16179,7 +16188,7 @@
         <v>39</v>
       </c>
       <c r="F208" s="30" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="G208" s="30" t="s">
         <v>879</v>
@@ -16188,7 +16197,7 @@
         <v>19</v>
       </c>
       <c r="I208" s="13" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="J208" s="31"/>
       <c r="K208" s="32" t="str">
@@ -16196,13 +16205,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L208" s="39" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="M208" s="39" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="N208" s="39" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="209" spans="1:14" ht="17.399999999999999">
@@ -16213,7 +16222,7 @@
         <v>3</v>
       </c>
       <c r="C209" s="29">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D209" s="30" t="s">
         <v>286</v>
@@ -16231,7 +16240,7 @@
         <v>22</v>
       </c>
       <c r="I209" s="13" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="J209" s="31"/>
       <c r="K209" s="32" t="str">
@@ -16239,13 +16248,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L209" s="39" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="M209" s="39" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="N209" s="39" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="210" spans="1:14" ht="17.399999999999999">
@@ -16265,7 +16274,7 @@
         <v>55</v>
       </c>
       <c r="F210" s="30" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="G210" s="30" t="s">
         <v>879</v>
@@ -16274,7 +16283,7 @@
         <v>19</v>
       </c>
       <c r="I210" s="13" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="J210" s="31"/>
       <c r="K210" s="32" t="str">
@@ -16282,13 +16291,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L210" s="39" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="M210" s="39" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="N210" s="39" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="211" spans="1:14" ht="17.399999999999999">
@@ -16317,7 +16326,7 @@
         <v>22</v>
       </c>
       <c r="I211" s="13" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="J211" s="31"/>
       <c r="K211" s="32" t="str">
@@ -16325,13 +16334,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L211" s="39" t="s">
+        <v>2250</v>
+      </c>
+      <c r="M211" s="39" t="s">
         <v>2251</v>
       </c>
-      <c r="M211" s="39" t="s">
-        <v>2252</v>
-      </c>
       <c r="N211" s="39" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="212" spans="1:14" s="10" customFormat="1" ht="31.2" hidden="1">
@@ -16358,7 +16367,7 @@
         <v>22</v>
       </c>
       <c r="I212" s="5" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="J212" s="31" t="s">
         <v>2185</v>
@@ -16379,7 +16388,7 @@
         <v>9</v>
       </c>
       <c r="D213" s="30" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="E213" s="30" t="s">
         <v>75</v>
@@ -16394,7 +16403,7 @@
         <v>19</v>
       </c>
       <c r="I213" s="13" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="J213" s="31"/>
       <c r="K213" s="32" t="str">
@@ -16402,13 +16411,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L213" s="37" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="M213" s="37" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="N213" s="37" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="214" spans="1:14" ht="17.399999999999999">
@@ -16437,7 +16446,7 @@
         <v>22</v>
       </c>
       <c r="I214" s="13" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="J214" s="31"/>
       <c r="K214" s="32" t="str">
@@ -16445,13 +16454,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L214" s="37" t="s">
+        <v>2250</v>
+      </c>
+      <c r="M214" s="37" t="s">
         <v>2251</v>
       </c>
-      <c r="M214" s="37" t="s">
-        <v>2252</v>
-      </c>
       <c r="N214" s="37" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="215" spans="1:14" ht="17.399999999999999">
@@ -16471,7 +16480,7 @@
         <v>39</v>
       </c>
       <c r="F215" s="30" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="G215" s="30" t="s">
         <v>879</v>
@@ -16480,7 +16489,7 @@
         <v>19</v>
       </c>
       <c r="I215" s="13" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="J215" s="31"/>
       <c r="K215" s="32" t="str">
@@ -16488,13 +16497,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L215" s="37" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="M215" s="37" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="N215" s="37" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="216" spans="1:14" s="23" customFormat="1" ht="31.2" hidden="1">
@@ -16521,7 +16530,7 @@
         <v>22</v>
       </c>
       <c r="I216" s="5" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="J216" s="31" t="s">
         <v>884</v>
@@ -18089,7 +18098,7 @@
       </c>
       <c r="C261" s="16"/>
       <c r="D261" s="27" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="E261" s="27" t="s">
         <v>75</v>
@@ -18104,10 +18113,10 @@
         <v>11</v>
       </c>
       <c r="I261" s="28" t="s">
+        <v>2219</v>
+      </c>
+      <c r="J261" s="28" t="s">
         <v>2220</v>
-      </c>
-      <c r="J261" s="28" t="s">
-        <v>2221</v>
       </c>
       <c r="K261" s="17" t="str">
         <f t="shared" si="12"/>
@@ -21177,7 +21186,7 @@
       </c>
       <c r="C348" s="16"/>
       <c r="D348" s="27" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="E348" s="27" t="s">
         <v>24</v>
@@ -21192,10 +21201,10 @@
         <v>11</v>
       </c>
       <c r="I348" s="28" t="s">
+        <v>2222</v>
+      </c>
+      <c r="J348" s="28" t="s">
         <v>2223</v>
-      </c>
-      <c r="J348" s="28" t="s">
-        <v>2224</v>
       </c>
       <c r="K348" s="17" t="str">
         <f t="shared" si="14"/>
@@ -22244,10 +22253,10 @@
       </c>
       <c r="C379" s="16"/>
       <c r="D379" s="27" t="s">
+        <v>2224</v>
+      </c>
+      <c r="E379" s="27" t="s">
         <v>2225</v>
-      </c>
-      <c r="E379" s="27" t="s">
-        <v>2226</v>
       </c>
       <c r="F379" s="27" t="s">
         <v>1086</v>
@@ -22259,10 +22268,10 @@
         <v>11</v>
       </c>
       <c r="I379" s="28" t="s">
+        <v>2226</v>
+      </c>
+      <c r="J379" s="28" t="s">
         <v>2227</v>
-      </c>
-      <c r="J379" s="28" t="s">
-        <v>2228</v>
       </c>
       <c r="K379" s="17" t="str">
         <f t="shared" si="14"/>
@@ -22533,7 +22542,7 @@
         <v>22</v>
       </c>
       <c r="I387" s="13" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="J387" s="31"/>
       <c r="K387" s="32" t="str">
@@ -22541,13 +22550,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L387" s="37" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="M387" s="37" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="N387" s="37" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="388" spans="1:24" ht="31.2" hidden="1">
@@ -22574,7 +22583,7 @@
         <v>22</v>
       </c>
       <c r="I388" s="5" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="J388" s="31" t="s">
         <v>1489</v>
@@ -22608,7 +22617,7 @@
         <v>22</v>
       </c>
       <c r="I389" s="5" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="J389" s="31" t="s">
         <v>1449</v>
@@ -33522,7 +33531,7 @@
         <v>22</v>
       </c>
       <c r="I695" s="13" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="J695" s="31"/>
       <c r="K695" s="32" t="str">
@@ -33530,13 +33539,13 @@
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="L695" s="39" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="M695" s="39" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="N695" s="39" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="696" spans="1:24" ht="31.2" hidden="1">
@@ -33563,7 +33572,7 @@
         <v>22</v>
       </c>
       <c r="I696" s="5" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="J696" s="31" t="s">
         <v>1312</v>
@@ -35373,10 +35382,10 @@
       </c>
       <c r="C749" s="16"/>
       <c r="D749" s="27" t="s">
-        <v>2218</v>
+        <v>2224</v>
       </c>
       <c r="E749" s="27" t="s">
-        <v>39</v>
+        <v>2336</v>
       </c>
       <c r="F749" s="27" t="s">
         <v>1086</v>
@@ -35508,7 +35517,7 @@
       </c>
       <c r="C753" s="16"/>
       <c r="D753" s="27" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="E753" s="27" t="s">
         <v>36</v>
@@ -35523,10 +35532,10 @@
         <v>11</v>
       </c>
       <c r="I753" s="28" t="s">
+        <v>2229</v>
+      </c>
+      <c r="J753" s="28" t="s">
         <v>2230</v>
-      </c>
-      <c r="J753" s="28" t="s">
-        <v>2231</v>
       </c>
       <c r="K753" s="17" t="str">
         <f t="shared" si="21"/>
@@ -35542,7 +35551,7 @@
       </c>
       <c r="C754" s="16"/>
       <c r="D754" s="27" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="E754" s="27" t="s">
         <v>55</v>
@@ -35557,10 +35566,10 @@
         <v>11</v>
       </c>
       <c r="I754" s="28" t="s">
+        <v>2232</v>
+      </c>
+      <c r="J754" s="28" t="s">
         <v>2233</v>
-      </c>
-      <c r="J754" s="28" t="s">
-        <v>2234</v>
       </c>
       <c r="K754" s="17" t="str">
         <f t="shared" si="21"/>
@@ -35576,7 +35585,7 @@
       </c>
       <c r="C755" s="16"/>
       <c r="D755" s="27" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="E755" s="27" t="s">
         <v>135</v>
@@ -35591,10 +35600,10 @@
         <v>11</v>
       </c>
       <c r="I755" s="28" t="s">
+        <v>2235</v>
+      </c>
+      <c r="J755" s="28" t="s">
         <v>2236</v>
-      </c>
-      <c r="J755" s="28" t="s">
-        <v>2237</v>
       </c>
       <c r="K755" s="17" t="str">
         <f t="shared" si="21"/>
@@ -35610,10 +35619,10 @@
       </c>
       <c r="C756" s="16"/>
       <c r="D756" s="27" t="s">
+        <v>2237</v>
+      </c>
+      <c r="E756" s="27" t="s">
         <v>2238</v>
-      </c>
-      <c r="E756" s="27" t="s">
-        <v>2239</v>
       </c>
       <c r="F756" s="27" t="s">
         <v>1750</v>
@@ -35625,10 +35634,10 @@
         <v>11</v>
       </c>
       <c r="I756" s="28" t="s">
+        <v>2239</v>
+      </c>
+      <c r="J756" s="28" t="s">
         <v>2240</v>
-      </c>
-      <c r="J756" s="28" t="s">
-        <v>2241</v>
       </c>
       <c r="K756" s="17" t="str">
         <f t="shared" si="21"/>
@@ -35671,9 +35680,9 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="22" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="22" orientation="portrait" r:id="rId1"/>
   <colBreaks count="2" manualBreakCount="2">
-    <brk id="15" max="756" man="1"/>
+    <brk id="15" max="752" man="1"/>
     <brk id="24" max="751" man="1"/>
   </colBreaks>
   <legacyDrawing r:id="rId2"/>
@@ -36989,7 +36998,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="37" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="37" orientation="portrait" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="5" max="751" man="1"/>
   </colBreaks>

--- a/data/roster.xlsx
+++ b/data/roster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC2409\Desktop\이영준\롯데면세점\링크관리\250829\4시24분\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{524661C7-31A8-435C-BEAD-6061B7B95D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65D799A-1E56-4F07-AA21-B094A72EAD6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10692" yWindow="0" windowWidth="11712" windowHeight="12240" xr2:uid="{7D76603D-15BE-4686-A7F1-28F7979D017A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7D76603D-15BE-4686-A7F1-28F7979D017A}"/>
   </bookViews>
   <sheets>
     <sheet name="6차수" sheetId="5" r:id="rId1"/>
@@ -6156,7 +6156,7 @@
   <dimension ref="A1:W753"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="K427" sqref="K427:L427"/>
+      <selection activeCell="D418" sqref="D418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17104,7 +17104,7 @@
         <v>1197</v>
       </c>
       <c r="J326" s="32" t="str">
-        <f t="shared" ref="J326:J389" si="12">VLOOKUP(B326,$L$5:$M$14,2)</f>
+        <f>VLOOKUP(B326,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K326" s="39" t="s">
@@ -17147,7 +17147,7 @@
         <v>1334</v>
       </c>
       <c r="J327" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B327,$L$5:$M$14,2)</f>
         <v>9/10(수)~9/11(목)</v>
       </c>
       <c r="N327" s="5" t="s">
@@ -17183,7 +17183,7 @@
         <v>1151</v>
       </c>
       <c r="J328" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B328,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K328" s="39" t="s">
@@ -17226,7 +17226,7 @@
         <v>1166</v>
       </c>
       <c r="J329" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B329,$L$5:$M$14,2)</f>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -17257,7 +17257,7 @@
         <v>1124</v>
       </c>
       <c r="J330" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B330,$L$5:$M$14,2)</f>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -17290,7 +17290,7 @@
         <v>888</v>
       </c>
       <c r="J331" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B331,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K331" s="39" t="s">
@@ -17333,7 +17333,7 @@
         <v>1011</v>
       </c>
       <c r="J332" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B332,$L$5:$M$14,2)</f>
         <v>9/10(수)~9/11(목)</v>
       </c>
       <c r="N332" s="5" t="s">
@@ -17367,7 +17367,7 @@
         <v>1539</v>
       </c>
       <c r="J333" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B333,$L$5:$M$14,2)</f>
         <v>9/10(수)~9/11(목)</v>
       </c>
       <c r="N333" s="5" t="s">
@@ -17401,7 +17401,7 @@
         <v>1049</v>
       </c>
       <c r="J334" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B334,$L$5:$M$14,2)</f>
         <v>9/8(월)~9/9(화)</v>
       </c>
       <c r="N334" s="5" t="s">
@@ -17435,7 +17435,7 @@
         <v>1064</v>
       </c>
       <c r="J335" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B335,$L$5:$M$14,2)</f>
         <v>9/10(수)~9/11(목)</v>
       </c>
       <c r="N335" s="5" t="s">
@@ -17469,7 +17469,7 @@
         <v>1504</v>
       </c>
       <c r="J336" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B336,$L$5:$M$14,2)</f>
         <v>9/10(수)~9/11(목)</v>
       </c>
       <c r="K336" s="3"/>
@@ -17515,7 +17515,7 @@
         <v>1120</v>
       </c>
       <c r="J337" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B337,$L$5:$M$14,2)</f>
         <v>9/10(수)~9/11(목)</v>
       </c>
       <c r="K337" s="3"/>
@@ -17561,7 +17561,7 @@
         <v>1299</v>
       </c>
       <c r="J338" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B338,$L$5:$M$14,2)</f>
         <v>9/10(수)~9/11(목)</v>
       </c>
       <c r="K338" s="3"/>
@@ -17605,7 +17605,7 @@
         <v>1106</v>
       </c>
       <c r="J339" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B339,$L$5:$M$14,2)</f>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -17636,7 +17636,7 @@
         <v>976</v>
       </c>
       <c r="J340" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B340,$L$5:$M$14,2)</f>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -17667,7 +17667,7 @@
         <v>980</v>
       </c>
       <c r="J341" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B341,$L$5:$M$14,2)</f>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -17698,7 +17698,7 @@
         <v>1478</v>
       </c>
       <c r="J342" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B342,$L$5:$M$14,2)</f>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -17729,7 +17729,7 @@
         <v>1201</v>
       </c>
       <c r="J343" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B343,$L$5:$M$14,2)</f>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -17760,7 +17760,7 @@
         <v>1279</v>
       </c>
       <c r="J344" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B344,$L$5:$M$14,2)</f>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -17791,7 +17791,7 @@
         <v>1554</v>
       </c>
       <c r="J345" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B345,$L$5:$M$14,2)</f>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -17822,7 +17822,7 @@
         <v>936</v>
       </c>
       <c r="J346" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B346,$L$5:$M$14,2)</f>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -17853,7 +17853,7 @@
         <v>985</v>
       </c>
       <c r="J347" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B347,$L$5:$M$14,2)</f>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -17884,7 +17884,7 @@
         <v>1639</v>
       </c>
       <c r="J348" s="17" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B348,$L$5:$M$14,2)</f>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -17915,7 +17915,7 @@
         <v>1476</v>
       </c>
       <c r="J349" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B349,$L$5:$M$14,2)</f>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -17946,7 +17946,7 @@
         <v>1499</v>
       </c>
       <c r="J350" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B350,$L$5:$M$14,2)</f>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -17977,7 +17977,7 @@
         <v>1437</v>
       </c>
       <c r="J351" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B351,$L$5:$M$14,2)</f>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -18008,7 +18008,7 @@
         <v>1305</v>
       </c>
       <c r="J352" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B352,$L$5:$M$14,2)</f>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -18039,7 +18039,7 @@
         <v>1142</v>
       </c>
       <c r="J353" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B353,$L$5:$M$14,2)</f>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -18070,7 +18070,7 @@
         <v>1296</v>
       </c>
       <c r="J354" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B354,$L$5:$M$14,2)</f>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -18101,7 +18101,7 @@
         <v>1321</v>
       </c>
       <c r="J355" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B355,$L$5:$M$14,2)</f>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -18132,7 +18132,7 @@
         <v>921</v>
       </c>
       <c r="J356" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B356,$L$5:$M$14,2)</f>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -18163,7 +18163,7 @@
         <v>1347</v>
       </c>
       <c r="J357" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B357,$L$5:$M$14,2)</f>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -18194,7 +18194,7 @@
         <v>1037</v>
       </c>
       <c r="J358" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B358,$L$5:$M$14,2)</f>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -18225,7 +18225,7 @@
         <v>919</v>
       </c>
       <c r="J359" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B359,$L$5:$M$14,2)</f>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -18256,7 +18256,7 @@
         <v>1590</v>
       </c>
       <c r="J360" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B360,$L$5:$M$14,2)</f>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -18287,7 +18287,7 @@
         <v>1614</v>
       </c>
       <c r="J361" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B361,$L$5:$M$14,2)</f>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -18318,7 +18318,7 @@
         <v>1155</v>
       </c>
       <c r="J362" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B362,$L$5:$M$14,2)</f>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -18349,7 +18349,7 @@
         <v>1095</v>
       </c>
       <c r="J363" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B363,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -18380,7 +18380,7 @@
         <v>1196</v>
       </c>
       <c r="J364" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B364,$L$5:$M$14,2)</f>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -18411,7 +18411,7 @@
         <v>1191</v>
       </c>
       <c r="J365" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B365,$L$5:$M$14,2)</f>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -18442,7 +18442,7 @@
         <v>1613</v>
       </c>
       <c r="J366" s="17" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B366,$L$5:$M$14,2)</f>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -18473,7 +18473,7 @@
         <v>1051</v>
       </c>
       <c r="J367" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B367,$L$5:$M$14,2)</f>
         <v>9/10(수)~9/11(목)</v>
       </c>
       <c r="K367" s="3"/>
@@ -18519,7 +18519,7 @@
         <v>1018</v>
       </c>
       <c r="J368" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B368,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K368" s="39" t="s">
@@ -18564,7 +18564,7 @@
         <v>1254</v>
       </c>
       <c r="J369" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B369,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K369" s="39" t="s">
@@ -18609,7 +18609,7 @@
         <v>1545</v>
       </c>
       <c r="J370" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B370,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K370" s="39" t="s">
@@ -18654,7 +18654,7 @@
         <v>1206</v>
       </c>
       <c r="J371" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B371,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K371" s="39" t="s">
@@ -18699,7 +18699,7 @@
         <v>1471</v>
       </c>
       <c r="J372" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B372,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K372" s="39" t="s">
@@ -18744,7 +18744,7 @@
         <v>1388</v>
       </c>
       <c r="J373" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B373,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K373" s="39" t="s">
@@ -18789,7 +18789,7 @@
         <v>1328</v>
       </c>
       <c r="J374" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B374,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K374" s="39" t="s">
@@ -18832,7 +18832,7 @@
         <v>1071</v>
       </c>
       <c r="J375" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B375,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K375" s="39" t="s">
@@ -18875,7 +18875,7 @@
         <v>887</v>
       </c>
       <c r="J376" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B376,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
       <c r="N376" s="5" t="s">
@@ -18884,7 +18884,7 @@
     </row>
     <row r="377" spans="1:14" ht="34.799999999999997">
       <c r="A377" s="29">
-        <v>412</v>
+        <v>377</v>
       </c>
       <c r="B377" s="29">
         <v>6</v>
@@ -18893,43 +18893,43 @@
         <v>2</v>
       </c>
       <c r="D377" s="30" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="E377" s="30" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="F377" s="30" t="s">
-        <v>100</v>
+        <v>1661</v>
       </c>
       <c r="G377" s="30" t="s">
-        <v>880</v>
+        <v>904</v>
       </c>
       <c r="H377" s="31" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I377" s="31" t="s">
-        <v>1435</v>
+        <v>967</v>
       </c>
       <c r="J377" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B377,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K377" s="39" t="s">
-        <v>1682</v>
+        <v>1675</v>
       </c>
       <c r="L377" s="39" t="s">
-        <v>1676</v>
+        <v>1684</v>
       </c>
       <c r="M377" s="39" t="s">
-        <v>1694</v>
+        <v>1712</v>
       </c>
       <c r="N377" s="13" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="378" spans="1:14" ht="17.399999999999999">
       <c r="A378" s="29">
-        <v>377</v>
+        <v>702</v>
       </c>
       <c r="B378" s="29">
         <v>6</v>
@@ -18938,43 +18938,43 @@
         <v>2</v>
       </c>
       <c r="D378" s="30" t="s">
-        <v>510</v>
+        <v>833</v>
       </c>
       <c r="E378" s="30" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="F378" s="30" t="s">
-        <v>1661</v>
+        <v>147</v>
       </c>
       <c r="G378" s="30" t="s">
-        <v>904</v>
+        <v>880</v>
       </c>
       <c r="H378" s="31" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I378" s="31" t="s">
-        <v>967</v>
+        <v>1209</v>
       </c>
       <c r="J378" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B378,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K378" s="39" t="s">
-        <v>1675</v>
+        <v>1682</v>
       </c>
       <c r="L378" s="39" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="M378" s="39" t="s">
-        <v>1712</v>
+        <v>1716</v>
       </c>
       <c r="N378" s="13" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="379" spans="1:14" ht="34.799999999999997">
       <c r="A379" s="29">
-        <v>702</v>
+        <v>385</v>
       </c>
       <c r="B379" s="29">
         <v>6</v>
@@ -18983,13 +18983,13 @@
         <v>2</v>
       </c>
       <c r="D379" s="30" t="s">
-        <v>833</v>
+        <v>519</v>
       </c>
       <c r="E379" s="30" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="F379" s="30" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="G379" s="30" t="s">
         <v>880</v>
@@ -18998,10 +18998,10 @@
         <v>22</v>
       </c>
       <c r="I379" s="31" t="s">
-        <v>1209</v>
+        <v>1112</v>
       </c>
       <c r="J379" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B379,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K379" s="39" t="s">
@@ -19011,7 +19011,7 @@
         <v>1681</v>
       </c>
       <c r="M379" s="39" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="N379" s="13" t="s">
         <v>1665</v>
@@ -19019,7 +19019,7 @@
     </row>
     <row r="380" spans="1:14" ht="34.799999999999997">
       <c r="A380" s="29">
-        <v>389</v>
+        <v>412</v>
       </c>
       <c r="B380" s="29">
         <v>6</v>
@@ -19028,13 +19028,13 @@
         <v>3</v>
       </c>
       <c r="D380" s="30" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="E380" s="30" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="F380" s="30" t="s">
-        <v>1657</v>
+        <v>100</v>
       </c>
       <c r="G380" s="30" t="s">
         <v>880</v>
@@ -19043,10 +19043,10 @@
         <v>22</v>
       </c>
       <c r="I380" s="31" t="s">
-        <v>1167</v>
+        <v>1435</v>
       </c>
       <c r="J380" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B380,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K380" s="39" t="s">
@@ -19056,15 +19056,15 @@
         <v>1676</v>
       </c>
       <c r="M380" s="39" t="s">
-        <v>1697</v>
+        <v>1694</v>
       </c>
       <c r="N380" s="13" t="s">
-        <v>1665</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="381" spans="1:14" s="36" customFormat="1" ht="34.799999999999997">
       <c r="A381" s="29">
-        <v>420</v>
+        <v>389</v>
       </c>
       <c r="B381" s="29">
         <v>6</v>
@@ -19073,13 +19073,13 @@
         <v>3</v>
       </c>
       <c r="D381" s="30" t="s">
-        <v>551</v>
+        <v>523</v>
       </c>
       <c r="E381" s="30" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="F381" s="30" t="s">
-        <v>311</v>
+        <v>1657</v>
       </c>
       <c r="G381" s="30" t="s">
         <v>880</v>
@@ -19088,20 +19088,20 @@
         <v>22</v>
       </c>
       <c r="I381" s="31" t="s">
-        <v>1500</v>
+        <v>1167</v>
       </c>
       <c r="J381" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B381,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K381" s="39" t="s">
         <v>1682</v>
       </c>
       <c r="L381" s="39" t="s">
-        <v>1681</v>
+        <v>1676</v>
       </c>
       <c r="M381" s="39" t="s">
-        <v>186</v>
+        <v>1697</v>
       </c>
       <c r="N381" s="13" t="s">
         <v>1665</v>
@@ -19109,7 +19109,7 @@
     </row>
     <row r="382" spans="1:14" ht="17.399999999999999">
       <c r="A382" s="29">
-        <v>364</v>
+        <v>420</v>
       </c>
       <c r="B382" s="29">
         <v>6</v>
@@ -19118,43 +19118,43 @@
         <v>3</v>
       </c>
       <c r="D382" s="30" t="s">
-        <v>496</v>
+        <v>551</v>
       </c>
       <c r="E382" s="30" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="F382" s="30" t="s">
-        <v>497</v>
+        <v>311</v>
       </c>
       <c r="G382" s="30" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="H382" s="31" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I382" s="31" t="s">
-        <v>997</v>
+        <v>1500</v>
       </c>
       <c r="J382" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B382,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K382" s="39" t="s">
-        <v>1692</v>
+        <v>1682</v>
       </c>
       <c r="L382" s="39" t="s">
-        <v>1692</v>
+        <v>1681</v>
       </c>
       <c r="M382" s="39" t="s">
-        <v>1698</v>
+        <v>186</v>
       </c>
       <c r="N382" s="13" t="s">
-        <v>1669</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="383" spans="1:14" ht="34.799999999999997">
       <c r="A383" s="29">
-        <v>433</v>
+        <v>364</v>
       </c>
       <c r="B383" s="29">
         <v>6</v>
@@ -19163,43 +19163,43 @@
         <v>3</v>
       </c>
       <c r="D383" s="30" t="s">
-        <v>563</v>
+        <v>496</v>
       </c>
       <c r="E383" s="30" t="s">
         <v>39</v>
       </c>
       <c r="F383" s="30" t="s">
-        <v>153</v>
+        <v>497</v>
       </c>
       <c r="G383" s="30" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="H383" s="31" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I383" s="31" t="s">
-        <v>1023</v>
+        <v>997</v>
       </c>
       <c r="J383" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B383,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K383" s="39" t="s">
-        <v>1682</v>
+        <v>1692</v>
       </c>
       <c r="L383" s="39" t="s">
-        <v>1681</v>
+        <v>1692</v>
       </c>
       <c r="M383" s="39" t="s">
-        <v>1695</v>
+        <v>1698</v>
       </c>
       <c r="N383" s="13" t="s">
-        <v>1667</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="384" spans="1:14" ht="17.399999999999999">
       <c r="A384" s="29">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B384" s="29">
         <v>6</v>
@@ -19208,13 +19208,13 @@
         <v>3</v>
       </c>
       <c r="D384" s="30" t="s">
-        <v>122</v>
+        <v>563</v>
       </c>
       <c r="E384" s="30" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F384" s="30" t="s">
-        <v>1661</v>
+        <v>153</v>
       </c>
       <c r="G384" s="30" t="s">
         <v>880</v>
@@ -19223,28 +19223,28 @@
         <v>22</v>
       </c>
       <c r="I384" s="31" t="s">
-        <v>973</v>
+        <v>1023</v>
       </c>
       <c r="J384" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B384,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K384" s="39" t="s">
-        <v>1733</v>
+        <v>1682</v>
       </c>
       <c r="L384" s="39" t="s">
-        <v>1676</v>
+        <v>1681</v>
       </c>
       <c r="M384" s="39" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="N384" s="13" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="385" spans="1:23" ht="17.399999999999999">
       <c r="A385" s="29">
-        <v>367</v>
+        <v>435</v>
       </c>
       <c r="B385" s="29">
         <v>6</v>
@@ -19253,25 +19253,25 @@
         <v>3</v>
       </c>
       <c r="D385" s="30" t="s">
-        <v>500</v>
+        <v>122</v>
       </c>
       <c r="E385" s="30" t="s">
-        <v>1734</v>
+        <v>36</v>
       </c>
       <c r="F385" s="30" t="s">
-        <v>85</v>
+        <v>1661</v>
       </c>
       <c r="G385" s="30" t="s">
         <v>880</v>
       </c>
       <c r="H385" s="31" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I385" s="31" t="s">
-        <v>1320</v>
+        <v>973</v>
       </c>
       <c r="J385" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B385,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K385" s="39" t="s">
@@ -19280,9 +19280,11 @@
       <c r="L385" s="39" t="s">
         <v>1676</v>
       </c>
-      <c r="M385" s="40"/>
+      <c r="M385" s="39" t="s">
+        <v>1696</v>
+      </c>
       <c r="N385" s="13" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="386" spans="1:23" ht="15.6" hidden="1">
@@ -19312,7 +19314,7 @@
         <v>1056</v>
       </c>
       <c r="J386" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B386,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
       <c r="N386" s="5" t="s">
@@ -19346,7 +19348,7 @@
         <v>1310</v>
       </c>
       <c r="J387" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B387,$L$5:$M$14,2)</f>
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="N387" s="5" t="s">
@@ -19355,7 +19357,7 @@
     </row>
     <row r="388" spans="1:23" ht="15.6">
       <c r="A388" s="29">
-        <v>426</v>
+        <v>367</v>
       </c>
       <c r="B388" s="29">
         <v>6</v>
@@ -19364,56 +19366,56 @@
         <v>3</v>
       </c>
       <c r="D388" s="30" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="E388" s="30" t="s">
-        <v>75</v>
+        <v>1734</v>
       </c>
       <c r="F388" s="30" t="s">
-        <v>402</v>
+        <v>85</v>
       </c>
       <c r="G388" s="30" t="s">
         <v>880</v>
       </c>
       <c r="H388" s="31" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I388" s="31" t="s">
-        <v>1570</v>
+        <v>1320</v>
       </c>
       <c r="J388" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B388,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
-      <c r="K388" s="41" t="s">
-        <v>1729</v>
-      </c>
-      <c r="L388" s="41" t="s">
-        <v>1729</v>
-      </c>
-      <c r="M388" s="41"/>
-      <c r="N388" s="32" t="s">
-        <v>1665</v>
+      <c r="K388" s="39" t="s">
+        <v>1733</v>
+      </c>
+      <c r="L388" s="39" t="s">
+        <v>1676</v>
+      </c>
+      <c r="M388" s="40"/>
+      <c r="N388" s="13" t="s">
+        <v>1669</v>
       </c>
     </row>
     <row r="389" spans="1:23" s="35" customFormat="1" ht="34.799999999999997">
       <c r="A389" s="29">
-        <v>408</v>
+        <v>426</v>
       </c>
       <c r="B389" s="29">
         <v>6</v>
       </c>
       <c r="C389" s="29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D389" s="30" t="s">
-        <v>538</v>
+        <v>556</v>
       </c>
       <c r="E389" s="30" t="s">
         <v>75</v>
       </c>
       <c r="F389" s="30" t="s">
-        <v>95</v>
+        <v>402</v>
       </c>
       <c r="G389" s="30" t="s">
         <v>880</v>
@@ -19422,28 +19424,26 @@
         <v>22</v>
       </c>
       <c r="I389" s="31" t="s">
-        <v>1394</v>
+        <v>1570</v>
       </c>
       <c r="J389" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(B389,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
-      <c r="K389" s="39" t="s">
-        <v>1675</v>
-      </c>
-      <c r="L389" s="39" t="s">
-        <v>1676</v>
-      </c>
-      <c r="M389" s="39" t="s">
-        <v>1699</v>
-      </c>
-      <c r="N389" s="13" t="s">
-        <v>1668</v>
+      <c r="K389" s="41" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L389" s="41" t="s">
+        <v>1729</v>
+      </c>
+      <c r="M389" s="41"/>
+      <c r="N389" s="32" t="s">
+        <v>1665</v>
       </c>
     </row>
     <row r="390" spans="1:23" ht="17.399999999999999">
       <c r="A390" s="29">
-        <v>361</v>
+        <v>408</v>
       </c>
       <c r="B390" s="29">
         <v>6</v>
@@ -19452,13 +19452,13 @@
         <v>4</v>
       </c>
       <c r="D390" s="30" t="s">
-        <v>493</v>
+        <v>538</v>
       </c>
       <c r="E390" s="30" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="F390" s="30" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="G390" s="30" t="s">
         <v>880</v>
@@ -19467,10 +19467,10 @@
         <v>22</v>
       </c>
       <c r="I390" s="31" t="s">
-        <v>1078</v>
+        <v>1394</v>
       </c>
       <c r="J390" s="32" t="str">
-        <f t="shared" ref="J390:J453" si="13">VLOOKUP(B390,$L$5:$M$14,2)</f>
+        <f>VLOOKUP(B390,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K390" s="39" t="s">
@@ -19480,15 +19480,15 @@
         <v>1676</v>
       </c>
       <c r="M390" s="39" t="s">
-        <v>1702</v>
+        <v>1699</v>
       </c>
       <c r="N390" s="13" t="s">
-        <v>1664</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="391" spans="1:23" s="7" customFormat="1" ht="34.799999999999997">
       <c r="A391" s="29">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="B391" s="29">
         <v>6</v>
@@ -19497,38 +19497,38 @@
         <v>4</v>
       </c>
       <c r="D391" s="30" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="E391" s="30" t="s">
-        <v>329</v>
+        <v>44</v>
       </c>
       <c r="F391" s="30" t="s">
-        <v>330</v>
+        <v>47</v>
       </c>
       <c r="G391" s="30" t="s">
         <v>880</v>
       </c>
       <c r="H391" s="31" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I391" s="31" t="s">
-        <v>881</v>
+        <v>1078</v>
       </c>
       <c r="J391" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B391,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K391" s="39" t="s">
-        <v>1692</v>
+        <v>1675</v>
       </c>
       <c r="L391" s="39" t="s">
-        <v>1692</v>
+        <v>1676</v>
       </c>
       <c r="M391" s="39" t="s">
-        <v>1735</v>
+        <v>1702</v>
       </c>
       <c r="N391" s="13" t="s">
-        <v>1669</v>
+        <v>1664</v>
       </c>
       <c r="O391" s="3"/>
       <c r="P391" s="3"/>
@@ -19542,7 +19542,7 @@
     </row>
     <row r="392" spans="1:23" ht="17.399999999999999">
       <c r="A392" s="29">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="B392" s="29">
         <v>6</v>
@@ -19551,43 +19551,43 @@
         <v>4</v>
       </c>
       <c r="D392" s="30" t="s">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="E392" s="30" t="s">
-        <v>55</v>
+        <v>329</v>
       </c>
       <c r="F392" s="30" t="s">
-        <v>1662</v>
+        <v>330</v>
       </c>
       <c r="G392" s="30" t="s">
         <v>880</v>
       </c>
       <c r="H392" s="31" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I392" s="31" t="s">
-        <v>1141</v>
+        <v>881</v>
       </c>
       <c r="J392" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B392,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K392" s="39" t="s">
-        <v>1675</v>
+        <v>1692</v>
       </c>
       <c r="L392" s="39" t="s">
-        <v>1676</v>
+        <v>1692</v>
       </c>
       <c r="M392" s="39" t="s">
-        <v>1700</v>
+        <v>1735</v>
       </c>
       <c r="N392" s="13" t="s">
-        <v>1667</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="393" spans="1:23" ht="34.799999999999997">
       <c r="A393" s="29">
-        <v>422</v>
+        <v>387</v>
       </c>
       <c r="B393" s="29">
         <v>6</v>
@@ -19596,13 +19596,13 @@
         <v>4</v>
       </c>
       <c r="D393" s="30" t="s">
-        <v>552</v>
+        <v>521</v>
       </c>
       <c r="E393" s="30" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="F393" s="30" t="s">
-        <v>314</v>
+        <v>1662</v>
       </c>
       <c r="G393" s="30" t="s">
         <v>880</v>
@@ -19611,28 +19611,28 @@
         <v>22</v>
       </c>
       <c r="I393" s="31" t="s">
-        <v>1515</v>
+        <v>1141</v>
       </c>
       <c r="J393" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B393,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K393" s="39" t="s">
-        <v>1682</v>
+        <v>1675</v>
       </c>
       <c r="L393" s="39" t="s">
-        <v>1681</v>
+        <v>1676</v>
       </c>
       <c r="M393" s="39" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
       <c r="N393" s="13" t="s">
-        <v>1664</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="394" spans="1:23" s="7" customFormat="1" ht="17.399999999999999">
       <c r="A394" s="29">
-        <v>379</v>
+        <v>422</v>
       </c>
       <c r="B394" s="29">
         <v>6</v>
@@ -19641,13 +19641,13 @@
         <v>4</v>
       </c>
       <c r="D394" s="30" t="s">
-        <v>512</v>
+        <v>552</v>
       </c>
       <c r="E394" s="30" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="F394" s="30" t="s">
-        <v>1663</v>
+        <v>314</v>
       </c>
       <c r="G394" s="30" t="s">
         <v>880</v>
@@ -19656,23 +19656,23 @@
         <v>22</v>
       </c>
       <c r="I394" s="31" t="s">
-        <v>1005</v>
+        <v>1515</v>
       </c>
       <c r="J394" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B394,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K394" s="39" t="s">
-        <v>1675</v>
+        <v>1682</v>
       </c>
       <c r="L394" s="39" t="s">
-        <v>1676</v>
+        <v>1681</v>
       </c>
       <c r="M394" s="39" t="s">
-        <v>1701</v>
+        <v>1703</v>
       </c>
       <c r="N394" s="13" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
       <c r="O394" s="3"/>
       <c r="P394" s="3"/>
@@ -19686,7 +19686,7 @@
     </row>
     <row r="395" spans="1:23" s="7" customFormat="1" ht="31.2">
       <c r="A395" s="29">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="B395" s="29">
         <v>6</v>
@@ -19695,34 +19695,36 @@
         <v>4</v>
       </c>
       <c r="D395" s="30" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="E395" s="30" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="F395" s="30" t="s">
-        <v>528</v>
+        <v>1663</v>
       </c>
       <c r="G395" s="30" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="H395" s="31" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I395" s="31" t="s">
-        <v>1231</v>
+        <v>1005</v>
       </c>
       <c r="J395" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B395,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K395" s="39" t="s">
-        <v>1729</v>
+        <v>1675</v>
       </c>
       <c r="L395" s="39" t="s">
-        <v>1729</v>
-      </c>
-      <c r="M395" s="40"/>
+        <v>1676</v>
+      </c>
+      <c r="M395" s="39" t="s">
+        <v>1701</v>
+      </c>
       <c r="N395" s="13" t="s">
         <v>1667</v>
       </c>
@@ -19738,7 +19740,7 @@
     </row>
     <row r="396" spans="1:23" ht="17.399999999999999">
       <c r="A396" s="29">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="B396" s="29">
         <v>6</v>
@@ -19747,83 +19749,81 @@
         <v>4</v>
       </c>
       <c r="D396" s="30" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="E396" s="30" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="F396" s="30" t="s">
-        <v>53</v>
+        <v>528</v>
       </c>
       <c r="G396" s="30" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="H396" s="31" t="s">
         <v>19</v>
       </c>
       <c r="I396" s="31" t="s">
-        <v>1126</v>
+        <v>1231</v>
       </c>
       <c r="J396" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B396,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K396" s="39" t="s">
-        <v>1675</v>
+        <v>1729</v>
       </c>
       <c r="L396" s="39" t="s">
-        <v>1684</v>
-      </c>
-      <c r="M396" s="39" t="s">
-        <v>1724</v>
-      </c>
+        <v>1729</v>
+      </c>
+      <c r="M396" s="40"/>
       <c r="N396" s="13" t="s">
-        <v>1664</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="397" spans="1:23" s="7" customFormat="1" ht="17.399999999999999">
       <c r="A397" s="29">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="B397" s="29">
         <v>6</v>
       </c>
       <c r="C397" s="29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D397" s="30" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="E397" s="30" t="s">
         <v>44</v>
       </c>
       <c r="F397" s="30" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G397" s="30" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="H397" s="31" t="s">
         <v>19</v>
       </c>
       <c r="I397" s="31" t="s">
-        <v>1091</v>
+        <v>1126</v>
       </c>
       <c r="J397" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B397,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K397" s="39" t="s">
-        <v>1692</v>
+        <v>1675</v>
       </c>
       <c r="L397" s="39" t="s">
-        <v>1692</v>
+        <v>1684</v>
       </c>
       <c r="M397" s="39" t="s">
-        <v>1709</v>
+        <v>1724</v>
       </c>
       <c r="N397" s="13" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="O397" s="3"/>
       <c r="P397" s="3"/>
@@ -19837,7 +19837,7 @@
     </row>
     <row r="398" spans="1:23" ht="34.799999999999997">
       <c r="A398" s="29">
-        <v>603</v>
+        <v>369</v>
       </c>
       <c r="B398" s="29">
         <v>6</v>
@@ -19846,43 +19846,43 @@
         <v>5</v>
       </c>
       <c r="D398" s="30" t="s">
-        <v>730</v>
+        <v>502</v>
       </c>
       <c r="E398" s="30" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="F398" s="30" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="G398" s="30" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="H398" s="31" t="s">
         <v>19</v>
       </c>
       <c r="I398" s="31" t="s">
-        <v>922</v>
+        <v>1091</v>
       </c>
       <c r="J398" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B398,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K398" s="39" t="s">
-        <v>1675</v>
+        <v>1692</v>
       </c>
       <c r="L398" s="39" t="s">
-        <v>1684</v>
+        <v>1692</v>
       </c>
       <c r="M398" s="39" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="N398" s="13" t="s">
-        <v>1664</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="399" spans="1:23" ht="34.799999999999997">
       <c r="A399" s="29">
-        <v>409</v>
+        <v>603</v>
       </c>
       <c r="B399" s="29">
         <v>6</v>
@@ -19891,43 +19891,43 @@
         <v>5</v>
       </c>
       <c r="D399" s="30" t="s">
-        <v>541</v>
+        <v>730</v>
       </c>
       <c r="E399" s="30" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="F399" s="30" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="G399" s="30" t="s">
         <v>880</v>
       </c>
       <c r="H399" s="31" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I399" s="31" t="s">
-        <v>1411</v>
+        <v>922</v>
       </c>
       <c r="J399" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B399,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K399" s="39" t="s">
         <v>1675</v>
       </c>
       <c r="L399" s="39" t="s">
-        <v>1676</v>
+        <v>1684</v>
       </c>
       <c r="M399" s="39" t="s">
-        <v>1704</v>
+        <v>1708</v>
       </c>
       <c r="N399" s="13" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="400" spans="1:23" ht="34.799999999999997">
       <c r="A400" s="29">
-        <v>378</v>
+        <v>409</v>
       </c>
       <c r="B400" s="29">
         <v>6</v>
@@ -19936,13 +19936,13 @@
         <v>5</v>
       </c>
       <c r="D400" s="30" t="s">
-        <v>511</v>
+        <v>541</v>
       </c>
       <c r="E400" s="30" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="F400" s="30" t="s">
-        <v>1660</v>
+        <v>98</v>
       </c>
       <c r="G400" s="30" t="s">
         <v>880</v>
@@ -19951,28 +19951,28 @@
         <v>22</v>
       </c>
       <c r="I400" s="31" t="s">
-        <v>983</v>
+        <v>1411</v>
       </c>
       <c r="J400" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B400,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K400" s="39" t="s">
         <v>1675</v>
       </c>
       <c r="L400" s="39" t="s">
-        <v>1684</v>
+        <v>1676</v>
       </c>
       <c r="M400" s="39" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="N400" s="13" t="s">
-        <v>1665</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="401" spans="1:23" s="7" customFormat="1" ht="17.399999999999999">
       <c r="A401" s="29">
-        <v>425</v>
+        <v>378</v>
       </c>
       <c r="B401" s="29">
         <v>6</v>
@@ -19981,13 +19981,13 @@
         <v>5</v>
       </c>
       <c r="D401" s="30" t="s">
-        <v>555</v>
+        <v>511</v>
       </c>
       <c r="E401" s="30" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="F401" s="30" t="s">
-        <v>121</v>
+        <v>1660</v>
       </c>
       <c r="G401" s="30" t="s">
         <v>880</v>
@@ -19996,10 +19996,10 @@
         <v>22</v>
       </c>
       <c r="I401" s="31" t="s">
-        <v>1550</v>
+        <v>983</v>
       </c>
       <c r="J401" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B401,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K401" s="39" t="s">
@@ -20009,10 +20009,10 @@
         <v>1684</v>
       </c>
       <c r="M401" s="39" t="s">
-        <v>1677</v>
+        <v>1707</v>
       </c>
       <c r="N401" s="13" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="O401" s="3"/>
       <c r="P401" s="3"/>
@@ -20026,7 +20026,7 @@
     </row>
     <row r="402" spans="1:23" ht="34.799999999999997">
       <c r="A402" s="29">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="B402" s="29">
         <v>6</v>
@@ -20035,13 +20035,13 @@
         <v>5</v>
       </c>
       <c r="D402" s="30" t="s">
-        <v>533</v>
+        <v>555</v>
       </c>
       <c r="E402" s="30" t="s">
         <v>75</v>
       </c>
       <c r="F402" s="30" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="G402" s="30" t="s">
         <v>880</v>
@@ -20050,20 +20050,20 @@
         <v>22</v>
       </c>
       <c r="I402" s="31" t="s">
-        <v>1287</v>
+        <v>1550</v>
       </c>
       <c r="J402" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B402,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K402" s="39" t="s">
         <v>1675</v>
       </c>
       <c r="L402" s="39" t="s">
-        <v>1676</v>
+        <v>1684</v>
       </c>
       <c r="M402" s="39" t="s">
-        <v>1705</v>
+        <v>1677</v>
       </c>
       <c r="N402" s="13" t="s">
         <v>1667</v>
@@ -20071,7 +20071,7 @@
     </row>
     <row r="403" spans="1:23" ht="34.799999999999997">
       <c r="A403" s="29">
-        <v>428</v>
+        <v>399</v>
       </c>
       <c r="B403" s="29">
         <v>6</v>
@@ -20080,13 +20080,13 @@
         <v>5</v>
       </c>
       <c r="D403" s="30" t="s">
-        <v>558</v>
+        <v>533</v>
       </c>
       <c r="E403" s="30" t="s">
         <v>75</v>
       </c>
       <c r="F403" s="30" t="s">
-        <v>405</v>
+        <v>83</v>
       </c>
       <c r="G403" s="30" t="s">
         <v>880</v>
@@ -20095,20 +20095,20 @@
         <v>22</v>
       </c>
       <c r="I403" s="31" t="s">
-        <v>1582</v>
+        <v>1287</v>
       </c>
       <c r="J403" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B403,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K403" s="39" t="s">
-        <v>1729</v>
+        <v>1675</v>
       </c>
       <c r="L403" s="39" t="s">
-        <v>1729</v>
+        <v>1676</v>
       </c>
       <c r="M403" s="39" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="N403" s="13" t="s">
         <v>1667</v>
@@ -20116,22 +20116,22 @@
     </row>
     <row r="404" spans="1:23" ht="52.2">
       <c r="A404" s="29">
-        <v>391</v>
+        <v>428</v>
       </c>
       <c r="B404" s="29">
         <v>6</v>
       </c>
       <c r="C404" s="29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D404" s="30" t="s">
-        <v>525</v>
+        <v>558</v>
       </c>
       <c r="E404" s="30" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="F404" s="30" t="s">
-        <v>1656</v>
+        <v>405</v>
       </c>
       <c r="G404" s="30" t="s">
         <v>880</v>
@@ -20140,23 +20140,23 @@
         <v>22</v>
       </c>
       <c r="I404" s="31" t="s">
-        <v>1178</v>
+        <v>1582</v>
       </c>
       <c r="J404" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B404,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K404" s="39" t="s">
-        <v>1682</v>
+        <v>1729</v>
       </c>
       <c r="L404" s="39" t="s">
-        <v>1681</v>
+        <v>1729</v>
       </c>
       <c r="M404" s="39" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
       <c r="N404" s="13" t="s">
-        <v>1664</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="405" spans="1:23" ht="15.6" hidden="1">
@@ -20186,13 +20186,13 @@
         <v>1326</v>
       </c>
       <c r="J405" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B405,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
     <row r="406" spans="1:23" ht="17.399999999999999">
       <c r="A406" s="29">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="B406" s="29">
         <v>6</v>
@@ -20201,41 +20201,43 @@
         <v>6</v>
       </c>
       <c r="D406" s="30" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="E406" s="30" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="F406" s="30" t="s">
-        <v>507</v>
+        <v>1656</v>
       </c>
       <c r="G406" s="30" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="H406" s="31" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I406" s="31" t="s">
-        <v>903</v>
+        <v>1178</v>
       </c>
       <c r="J406" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B406,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K406" s="39" t="s">
-        <v>1740</v>
+        <v>1682</v>
       </c>
       <c r="L406" s="39" t="s">
-        <v>1692</v>
-      </c>
-      <c r="M406" s="40"/>
+        <v>1681</v>
+      </c>
+      <c r="M406" s="39" t="s">
+        <v>1710</v>
+      </c>
       <c r="N406" s="13" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="407" spans="1:23" ht="17.399999999999999">
       <c r="A407" s="29">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="B407" s="29">
         <v>6</v>
@@ -20244,32 +20246,32 @@
         <v>6</v>
       </c>
       <c r="D407" s="30" t="s">
-        <v>544</v>
+        <v>506</v>
       </c>
       <c r="E407" s="30" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="F407" s="30" t="s">
-        <v>104</v>
+        <v>507</v>
       </c>
       <c r="G407" s="30" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="H407" s="31" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I407" s="31" t="s">
-        <v>1448</v>
+        <v>903</v>
       </c>
       <c r="J407" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B407,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K407" s="39" t="s">
-        <v>1675</v>
+        <v>1740</v>
       </c>
       <c r="L407" s="39" t="s">
-        <v>1676</v>
+        <v>1692</v>
       </c>
       <c r="M407" s="40"/>
       <c r="N407" s="13" t="s">
@@ -20278,7 +20280,7 @@
     </row>
     <row r="408" spans="1:23" ht="34.799999999999997">
       <c r="A408" s="29">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="B408" s="29">
         <v>6</v>
@@ -20287,13 +20289,13 @@
         <v>6</v>
       </c>
       <c r="D408" s="30" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="E408" s="30" t="s">
         <v>75</v>
       </c>
       <c r="F408" s="30" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="G408" s="30" t="s">
         <v>880</v>
@@ -20302,10 +20304,10 @@
         <v>22</v>
       </c>
       <c r="I408" s="31" t="s">
-        <v>1281</v>
+        <v>1448</v>
       </c>
       <c r="J408" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B408,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K408" s="39" t="s">
@@ -20314,11 +20316,9 @@
       <c r="L408" s="39" t="s">
         <v>1676</v>
       </c>
-      <c r="M408" s="39" t="s">
-        <v>1711</v>
-      </c>
+      <c r="M408" s="40"/>
       <c r="N408" s="13" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="409" spans="1:23" ht="15.6" hidden="1">
@@ -20348,7 +20348,7 @@
         <v>1501</v>
       </c>
       <c r="J409" s="32" t="e">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B409,$L$5:$M$14,2)</f>
         <v>#N/A</v>
       </c>
       <c r="N409" s="5" t="s">
@@ -20357,7 +20357,7 @@
     </row>
     <row r="410" spans="1:23" ht="17.399999999999999">
       <c r="A410" s="29">
-        <v>306</v>
+        <v>398</v>
       </c>
       <c r="B410" s="29">
         <v>6</v>
@@ -20366,13 +20366,13 @@
         <v>6</v>
       </c>
       <c r="D410" s="30" t="s">
-        <v>435</v>
+        <v>532</v>
       </c>
       <c r="E410" s="30" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="F410" s="30" t="s">
-        <v>180</v>
+        <v>83</v>
       </c>
       <c r="G410" s="30" t="s">
         <v>880</v>
@@ -20381,28 +20381,28 @@
         <v>22</v>
       </c>
       <c r="I410" s="31" t="s">
-        <v>1072</v>
+        <v>1281</v>
       </c>
       <c r="J410" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B410,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K410" s="39" t="s">
-        <v>1729</v>
+        <v>1675</v>
       </c>
       <c r="L410" s="39" t="s">
-        <v>1729</v>
-      </c>
-      <c r="M410" s="40" t="s">
-        <v>1736</v>
+        <v>1676</v>
+      </c>
+      <c r="M410" s="39" t="s">
+        <v>1711</v>
       </c>
       <c r="N410" s="13" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="411" spans="1:23" ht="31.2">
       <c r="A411" s="29">
-        <v>542</v>
+        <v>306</v>
       </c>
       <c r="B411" s="29">
         <v>6</v>
@@ -20411,13 +20411,13 @@
         <v>6</v>
       </c>
       <c r="D411" s="30" t="s">
-        <v>670</v>
+        <v>435</v>
       </c>
       <c r="E411" s="30" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="F411" s="30" t="s">
-        <v>1659</v>
+        <v>180</v>
       </c>
       <c r="G411" s="30" t="s">
         <v>880</v>
@@ -20426,28 +20426,28 @@
         <v>22</v>
       </c>
       <c r="I411" s="31" t="s">
-        <v>1235</v>
+        <v>1072</v>
       </c>
       <c r="J411" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B411,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K411" s="39" t="s">
-        <v>1675</v>
+        <v>1729</v>
       </c>
       <c r="L411" s="39" t="s">
-        <v>1684</v>
-      </c>
-      <c r="M411" s="39" t="s">
-        <v>1712</v>
+        <v>1729</v>
+      </c>
+      <c r="M411" s="40" t="s">
+        <v>1736</v>
       </c>
       <c r="N411" s="13" t="s">
-        <v>1664</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="412" spans="1:23" s="7" customFormat="1" ht="17.399999999999999">
       <c r="A412" s="29">
-        <v>403</v>
+        <v>542</v>
       </c>
       <c r="B412" s="29">
         <v>6</v>
@@ -20456,34 +20456,36 @@
         <v>6</v>
       </c>
       <c r="D412" s="30" t="s">
-        <v>537</v>
+        <v>670</v>
       </c>
       <c r="E412" s="30" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F412" s="30" t="s">
-        <v>85</v>
+        <v>1659</v>
       </c>
       <c r="G412" s="30" t="s">
         <v>880</v>
       </c>
       <c r="H412" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="I412" s="31">
-        <v>1029775905</v>
+        <v>22</v>
+      </c>
+      <c r="I412" s="31" t="s">
+        <v>1235</v>
       </c>
       <c r="J412" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B412,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K412" s="39" t="s">
         <v>1675</v>
       </c>
       <c r="L412" s="39" t="s">
-        <v>1676</v>
-      </c>
-      <c r="M412" s="40"/>
+        <v>1684</v>
+      </c>
+      <c r="M412" s="39" t="s">
+        <v>1712</v>
+      </c>
       <c r="N412" s="13" t="s">
         <v>1664</v>
       </c>
@@ -20499,22 +20501,22 @@
     </row>
     <row r="413" spans="1:23" ht="17.399999999999999">
       <c r="A413" s="29">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="B413" s="29">
         <v>6</v>
       </c>
       <c r="C413" s="29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D413" s="30" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="E413" s="30" t="s">
         <v>75</v>
       </c>
       <c r="F413" s="30" t="s">
-        <v>223</v>
+        <v>85</v>
       </c>
       <c r="G413" s="30" t="s">
         <v>880</v>
@@ -20522,29 +20524,27 @@
       <c r="H413" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="I413" s="31" t="s">
-        <v>1490</v>
+      <c r="I413" s="31">
+        <v>1029775905</v>
       </c>
       <c r="J413" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B413,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K413" s="39" t="s">
         <v>1675</v>
       </c>
       <c r="L413" s="39" t="s">
-        <v>1684</v>
-      </c>
-      <c r="M413" s="39" t="s">
-        <v>1690</v>
-      </c>
+        <v>1676</v>
+      </c>
+      <c r="M413" s="40"/>
       <c r="N413" s="13" t="s">
         <v>1664</v>
       </c>
     </row>
     <row r="414" spans="1:23" ht="34.799999999999997">
       <c r="A414" s="29">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="B414" s="29">
         <v>6</v>
@@ -20553,35 +20553,35 @@
         <v>7</v>
       </c>
       <c r="D414" s="30" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="E414" s="30" t="s">
         <v>75</v>
       </c>
       <c r="F414" s="30" t="s">
-        <v>100</v>
+        <v>223</v>
       </c>
       <c r="G414" s="30" t="s">
         <v>880</v>
       </c>
       <c r="H414" s="31" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I414" s="31" t="s">
-        <v>1428</v>
+        <v>1490</v>
       </c>
       <c r="J414" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B414,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K414" s="39" t="s">
-        <v>1682</v>
+        <v>1675</v>
       </c>
       <c r="L414" s="39" t="s">
-        <v>1676</v>
+        <v>1684</v>
       </c>
       <c r="M414" s="39" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="N414" s="13" t="s">
         <v>1664</v>
@@ -20614,7 +20614,7 @@
         <v>1421</v>
       </c>
       <c r="J415" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B415,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
       <c r="N415" s="5" t="s">
@@ -20623,7 +20623,7 @@
     </row>
     <row r="416" spans="1:23" ht="17.399999999999999">
       <c r="A416" s="29">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="B416" s="29">
         <v>6</v>
@@ -20632,35 +20632,35 @@
         <v>7</v>
       </c>
       <c r="D416" s="30" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="E416" s="30" t="s">
         <v>75</v>
       </c>
       <c r="F416" s="30" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="G416" s="30" t="s">
         <v>880</v>
       </c>
       <c r="H416" s="31" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I416" s="31" t="s">
-        <v>1571</v>
+        <v>1428</v>
       </c>
       <c r="J416" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B416,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K416" s="39" t="s">
-        <v>1740</v>
+        <v>1682</v>
       </c>
       <c r="L416" s="39" t="s">
-        <v>1692</v>
+        <v>1676</v>
       </c>
       <c r="M416" s="39" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="N416" s="13" t="s">
         <v>1664</v>
@@ -20668,7 +20668,7 @@
     </row>
     <row r="417" spans="1:23" ht="17.399999999999999">
       <c r="A417" s="29">
-        <v>374</v>
+        <v>427</v>
       </c>
       <c r="B417" s="29">
         <v>6</v>
@@ -20677,25 +20677,25 @@
         <v>7</v>
       </c>
       <c r="D417" s="30" t="s">
-        <v>508</v>
+        <v>557</v>
       </c>
       <c r="E417" s="30" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="F417" s="30" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="G417" s="30" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="H417" s="31" t="s">
         <v>19</v>
       </c>
       <c r="I417" s="31" t="s">
-        <v>935</v>
+        <v>1571</v>
       </c>
       <c r="J417" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B417,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K417" s="39" t="s">
@@ -20704,14 +20704,16 @@
       <c r="L417" s="39" t="s">
         <v>1692</v>
       </c>
-      <c r="M417" s="40"/>
+      <c r="M417" s="39" t="s">
+        <v>1693</v>
+      </c>
       <c r="N417" s="13" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="418" spans="1:23" ht="34.799999999999997">
       <c r="A418" s="29">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="B418" s="29">
         <v>6</v>
@@ -20720,38 +20722,36 @@
         <v>7</v>
       </c>
       <c r="D418" s="30" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="E418" s="30" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F418" s="30" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="G418" s="30" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="H418" s="31" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I418" s="31" t="s">
-        <v>1112</v>
+        <v>935</v>
       </c>
       <c r="J418" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B418,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K418" s="39" t="s">
-        <v>1682</v>
+        <v>1740</v>
       </c>
       <c r="L418" s="39" t="s">
-        <v>1681</v>
-      </c>
-      <c r="M418" s="39" t="s">
-        <v>1714</v>
-      </c>
+        <v>1692</v>
+      </c>
+      <c r="M418" s="40"/>
       <c r="N418" s="13" t="s">
-        <v>1665</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="419" spans="1:23" ht="31.2">
@@ -20783,7 +20783,7 @@
         <v>1239</v>
       </c>
       <c r="J419" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B419,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K419" s="39" t="s">
@@ -20828,7 +20828,7 @@
         <v>960</v>
       </c>
       <c r="J420" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B420,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K420" s="39" t="s">
@@ -20873,7 +20873,7 @@
         <v>1377</v>
       </c>
       <c r="J421" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B421,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K421" s="39" t="s">
@@ -20918,7 +20918,7 @@
         <v>1176</v>
       </c>
       <c r="J422" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B422,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K422" s="39" t="s">
@@ -20972,7 +20972,7 @@
         <v>1364</v>
       </c>
       <c r="J423" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B423,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K423" s="39" t="s">
@@ -21017,7 +21017,7 @@
         <v>1491</v>
       </c>
       <c r="J424" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B424,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K424" s="39" t="s">
@@ -21062,7 +21062,7 @@
         <v>1213</v>
       </c>
       <c r="J425" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B425,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K425" s="39" t="s">
@@ -21107,7 +21107,7 @@
         <v>1017</v>
       </c>
       <c r="J426" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B426,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K426" s="39" t="s">
@@ -21152,7 +21152,7 @@
         <v>1080</v>
       </c>
       <c r="J427" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B427,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K427" s="39" t="s">
@@ -21195,7 +21195,7 @@
         <v>1587</v>
       </c>
       <c r="J428" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B428,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K428" s="39" t="s">
@@ -21240,7 +21240,7 @@
         <v>1225</v>
       </c>
       <c r="J429" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B429,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K429" s="39" t="s">
@@ -21285,7 +21285,7 @@
         <v>1331</v>
       </c>
       <c r="J430" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B430,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K430" s="39" t="s">
@@ -21328,7 +21328,7 @@
         <v>1524</v>
       </c>
       <c r="J431" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B431,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K431" s="39" t="s">
@@ -21373,7 +21373,7 @@
         <v>1035</v>
       </c>
       <c r="J432" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B432,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K432" s="39" t="s">
@@ -21418,7 +21418,7 @@
         <v>1586</v>
       </c>
       <c r="J433" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B433,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K433" s="39" t="s">
@@ -21463,7 +21463,7 @@
         <v>1247</v>
       </c>
       <c r="J434" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B434,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K434" s="39" t="s">
@@ -21508,7 +21508,7 @@
         <v>1107</v>
       </c>
       <c r="J435" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B435,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K435" s="39" t="s">
@@ -21553,7 +21553,7 @@
         <v>1274</v>
       </c>
       <c r="J436" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B436,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K436" s="39" t="s">
@@ -21598,7 +21598,7 @@
         <v>1202</v>
       </c>
       <c r="J437" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B437,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K437" s="39" t="s">
@@ -21643,7 +21643,7 @@
         <v>1462</v>
       </c>
       <c r="J438" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B438,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K438" s="39" t="s">
@@ -21688,7 +21688,7 @@
         <v>1496</v>
       </c>
       <c r="J439" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B439,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K439" s="39" t="s">
@@ -21733,7 +21733,7 @@
         <v>1473</v>
       </c>
       <c r="J440" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B440,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K440" s="39" t="s">
@@ -21776,7 +21776,7 @@
         <v>1200</v>
       </c>
       <c r="J441" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B441,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
       <c r="N441" s="5" t="s">
@@ -21810,7 +21810,7 @@
         <v>994</v>
       </c>
       <c r="J442" s="32" t="e">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B442,$L$5:$M$14,2)</f>
         <v>#N/A</v>
       </c>
       <c r="N442" s="5" t="s">
@@ -21844,7 +21844,7 @@
         <v>1001</v>
       </c>
       <c r="J443" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B443,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
       <c r="N443" s="5" t="s">
@@ -21878,7 +21878,7 @@
         <v>1038</v>
       </c>
       <c r="J444" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B444,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
       <c r="N444" s="5" t="s">
@@ -21912,7 +21912,7 @@
         <v>937</v>
       </c>
       <c r="J445" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B445,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
       <c r="N445" s="5" t="s">
@@ -21946,7 +21946,7 @@
         <v>1087</v>
       </c>
       <c r="J446" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B446,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
       <c r="N446" s="5" t="s">
@@ -21980,7 +21980,7 @@
         <v>974</v>
       </c>
       <c r="J447" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B447,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -22011,7 +22011,7 @@
         <v>1024</v>
       </c>
       <c r="J448" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B448,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -22042,7 +22042,7 @@
         <v>1229</v>
       </c>
       <c r="J449" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B449,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -22073,7 +22073,7 @@
         <v>896</v>
       </c>
       <c r="J450" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B450,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -22104,7 +22104,7 @@
         <v>929</v>
       </c>
       <c r="J451" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B451,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -22135,7 +22135,7 @@
         <v>934</v>
       </c>
       <c r="J452" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B452,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -22166,7 +22166,7 @@
         <v>938</v>
       </c>
       <c r="J453" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f>VLOOKUP(B453,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -22197,7 +22197,7 @@
         <v>950</v>
       </c>
       <c r="J454" s="32" t="str">
-        <f t="shared" ref="J454:J517" si="14">VLOOKUP(B454,$L$5:$M$14,2)</f>
+        <f>VLOOKUP(B454,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -22228,7 +22228,7 @@
         <v>962</v>
       </c>
       <c r="J455" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B455,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -22259,7 +22259,7 @@
         <v>965</v>
       </c>
       <c r="J456" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B456,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -22290,7 +22290,7 @@
         <v>968</v>
       </c>
       <c r="J457" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B457,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -22321,7 +22321,7 @@
         <v>984</v>
       </c>
       <c r="J458" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B458,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -22352,7 +22352,7 @@
         <v>1027</v>
       </c>
       <c r="J459" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B459,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -22383,7 +22383,7 @@
         <v>1039</v>
       </c>
       <c r="J460" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B460,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -22414,7 +22414,7 @@
         <v>1054</v>
       </c>
       <c r="J461" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B461,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -22445,7 +22445,7 @@
         <v>1055</v>
       </c>
       <c r="J462" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B462,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
       <c r="K462" s="3"/>
@@ -22489,7 +22489,7 @@
         <v>1065</v>
       </c>
       <c r="J463" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B463,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
       <c r="K463" s="3"/>
@@ -22533,7 +22533,7 @@
         <v>1079</v>
       </c>
       <c r="J464" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B464,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -22564,7 +22564,7 @@
         <v>1090</v>
       </c>
       <c r="J465" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B465,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
       <c r="K465" s="3"/>
@@ -22608,7 +22608,7 @@
         <v>1098</v>
       </c>
       <c r="J466" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B466,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -22639,7 +22639,7 @@
         <v>1114</v>
       </c>
       <c r="J467" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B467,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -22670,7 +22670,7 @@
         <v>1129</v>
       </c>
       <c r="J468" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B468,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -22701,7 +22701,7 @@
         <v>1137</v>
       </c>
       <c r="J469" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B469,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -22732,7 +22732,7 @@
         <v>1145</v>
       </c>
       <c r="J470" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B470,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -22763,7 +22763,7 @@
         <v>1169</v>
       </c>
       <c r="J471" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B471,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -22794,7 +22794,7 @@
         <v>1177</v>
       </c>
       <c r="J472" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B472,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -22825,7 +22825,7 @@
         <v>1184</v>
       </c>
       <c r="J473" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B473,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -22856,7 +22856,7 @@
         <v>1198</v>
       </c>
       <c r="J474" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B474,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
       <c r="K474" s="3"/>
@@ -22900,7 +22900,7 @@
         <v>1223</v>
       </c>
       <c r="J475" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B475,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -22931,7 +22931,7 @@
         <v>1245</v>
       </c>
       <c r="J476" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B476,$L$5:$M$14,2)</f>
         <v>9/10(수)~9/11(목)</v>
       </c>
       <c r="K476" s="3"/>
@@ -22975,7 +22975,7 @@
         <v>1265</v>
       </c>
       <c r="J477" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B477,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -23006,7 +23006,7 @@
         <v>1272</v>
       </c>
       <c r="J478" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B478,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -23037,7 +23037,7 @@
         <v>1292</v>
       </c>
       <c r="J479" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B479,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -23068,7 +23068,7 @@
         <v>1298</v>
       </c>
       <c r="J480" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B480,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -23099,7 +23099,7 @@
         <v>1306</v>
       </c>
       <c r="J481" s="32" t="e">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B481,$L$5:$M$14,2)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -23130,7 +23130,7 @@
         <v>1313</v>
       </c>
       <c r="J482" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B482,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -23161,7 +23161,7 @@
         <v>1318</v>
       </c>
       <c r="J483" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B483,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -23192,7 +23192,7 @@
         <v>1332</v>
       </c>
       <c r="J484" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B484,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
       <c r="K484" s="3"/>
@@ -23236,7 +23236,7 @@
         <v>1344</v>
       </c>
       <c r="J485" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B485,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -23267,7 +23267,7 @@
         <v>1346</v>
       </c>
       <c r="J486" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B486,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
       <c r="K486" s="3"/>
@@ -23311,7 +23311,7 @@
         <v>1361</v>
       </c>
       <c r="J487" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B487,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
       <c r="K487" s="3"/>
@@ -23355,7 +23355,7 @@
         <v>1376</v>
       </c>
       <c r="J488" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B488,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -23386,7 +23386,7 @@
         <v>1397</v>
       </c>
       <c r="J489" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B489,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -23417,7 +23417,7 @@
         <v>1398</v>
       </c>
       <c r="J490" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B490,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -23448,7 +23448,7 @@
         <v>1413</v>
       </c>
       <c r="J491" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B491,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -23479,7 +23479,7 @@
         <v>1417</v>
       </c>
       <c r="J492" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B492,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -23510,7 +23510,7 @@
         <v>1419</v>
       </c>
       <c r="J493" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B493,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -23541,7 +23541,7 @@
         <v>1436</v>
       </c>
       <c r="J494" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B494,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -23572,7 +23572,7 @@
         <v>1438</v>
       </c>
       <c r="J495" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B495,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -23603,7 +23603,7 @@
         <v>1463</v>
       </c>
       <c r="J496" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B496,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -23634,7 +23634,7 @@
         <v>1481</v>
       </c>
       <c r="J497" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B497,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -23665,7 +23665,7 @@
         <v>1482</v>
       </c>
       <c r="J498" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B498,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -23696,7 +23696,7 @@
         <v>1492</v>
       </c>
       <c r="J499" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B499,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -23727,7 +23727,7 @@
         <v>1510</v>
       </c>
       <c r="J500" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B500,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -23758,7 +23758,7 @@
         <v>1514</v>
       </c>
       <c r="J501" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B501,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -23789,7 +23789,7 @@
         <v>1520</v>
       </c>
       <c r="J502" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B502,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -23820,7 +23820,7 @@
         <v>1528</v>
       </c>
       <c r="J503" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B503,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -23851,7 +23851,7 @@
         <v>1533</v>
       </c>
       <c r="J504" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B504,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -23882,7 +23882,7 @@
         <v>1543</v>
       </c>
       <c r="J505" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B505,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -23913,7 +23913,7 @@
         <v>1548</v>
       </c>
       <c r="J506" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B506,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -23944,7 +23944,7 @@
         <v>1558</v>
       </c>
       <c r="J507" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B507,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -23975,7 +23975,7 @@
         <v>1563</v>
       </c>
       <c r="J508" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B508,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -24006,7 +24006,7 @@
         <v>1574</v>
       </c>
       <c r="J509" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B509,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -24037,7 +24037,7 @@
         <v>1575</v>
       </c>
       <c r="J510" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B510,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -24068,7 +24068,7 @@
         <v>1594</v>
       </c>
       <c r="J511" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B511,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -24099,7 +24099,7 @@
         <v>1597</v>
       </c>
       <c r="J512" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B512,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -24130,7 +24130,7 @@
         <v>1605</v>
       </c>
       <c r="J513" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B513,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -24161,7 +24161,7 @@
         <v>1607</v>
       </c>
       <c r="J514" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B514,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -24192,7 +24192,7 @@
         <v>966</v>
       </c>
       <c r="J515" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B515,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -24223,7 +24223,7 @@
         <v>986</v>
       </c>
       <c r="J516" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B516,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -24254,7 +24254,7 @@
         <v>1115</v>
       </c>
       <c r="J517" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f>VLOOKUP(B517,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -24285,7 +24285,7 @@
         <v>1097</v>
       </c>
       <c r="J518" s="32" t="str">
-        <f t="shared" ref="J518:J581" si="15">VLOOKUP(B518,$L$5:$M$14,2)</f>
+        <f>VLOOKUP(B518,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -24316,7 +24316,7 @@
         <v>1019</v>
       </c>
       <c r="J519" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B519,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -24347,7 +24347,7 @@
         <v>971</v>
       </c>
       <c r="J520" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B520,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -24378,7 +24378,7 @@
         <v>975</v>
       </c>
       <c r="J521" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B521,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -24409,7 +24409,7 @@
         <v>978</v>
       </c>
       <c r="J522" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B522,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -24440,7 +24440,7 @@
         <v>894</v>
       </c>
       <c r="J523" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B523,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -24471,7 +24471,7 @@
         <v>900</v>
       </c>
       <c r="J524" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B524,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -24502,7 +24502,7 @@
         <v>908</v>
       </c>
       <c r="J525" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B525,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -24533,7 +24533,7 @@
         <v>912</v>
       </c>
       <c r="J526" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B526,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -24564,7 +24564,7 @@
         <v>925</v>
       </c>
       <c r="J527" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B527,$L$5:$M$14,2)</f>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -24595,7 +24595,7 @@
         <v>956</v>
       </c>
       <c r="J528" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B528,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -24626,7 +24626,7 @@
         <v>972</v>
       </c>
       <c r="J529" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B529,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -24657,7 +24657,7 @@
         <v>979</v>
       </c>
       <c r="J530" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B530,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -24688,7 +24688,7 @@
         <v>1000</v>
       </c>
       <c r="J531" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B531,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -24719,7 +24719,7 @@
         <v>1016</v>
       </c>
       <c r="J532" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B532,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -24750,7 +24750,7 @@
         <v>1022</v>
       </c>
       <c r="J533" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B533,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
       <c r="K533" s="3"/>
@@ -24794,7 +24794,7 @@
         <v>1041</v>
       </c>
       <c r="J534" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B534,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -24825,7 +24825,7 @@
         <v>1062</v>
       </c>
       <c r="J535" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B535,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
       <c r="K535" s="3"/>
@@ -24869,7 +24869,7 @@
         <v>1130</v>
       </c>
       <c r="J536" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B536,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -24900,7 +24900,7 @@
         <v>1140</v>
       </c>
       <c r="J537" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B537,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
       <c r="K537" s="3"/>
@@ -24944,7 +24944,7 @@
         <v>1149</v>
       </c>
       <c r="J538" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B538,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
       <c r="K538" s="3"/>
@@ -24988,7 +24988,7 @@
         <v>1153</v>
       </c>
       <c r="J539" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B539,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
       <c r="K539" s="3"/>
@@ -25032,7 +25032,7 @@
         <v>1156</v>
       </c>
       <c r="J540" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B540,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -25063,7 +25063,7 @@
         <v>1168</v>
       </c>
       <c r="J541" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B541,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -25094,7 +25094,7 @@
         <v>1182</v>
       </c>
       <c r="J542" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B542,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -25125,7 +25125,7 @@
         <v>1188</v>
       </c>
       <c r="J543" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B543,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -25156,7 +25156,7 @@
         <v>1212</v>
       </c>
       <c r="J544" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B544,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
       <c r="K544" s="3"/>
@@ -25202,7 +25202,7 @@
         <v>1616</v>
       </c>
       <c r="J545" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B545,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K545" s="39" t="s">
@@ -25247,7 +25247,7 @@
         <v>1599</v>
       </c>
       <c r="J546" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B546,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K546" s="39" t="s">
@@ -25299,7 +25299,7 @@
         <v>1261</v>
       </c>
       <c r="J547" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B547,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
       <c r="K547" s="3"/>
@@ -25345,7 +25345,7 @@
         <v>1268</v>
       </c>
       <c r="J548" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B548,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
       <c r="N548" s="5" t="s">
@@ -25379,7 +25379,7 @@
         <v>1277</v>
       </c>
       <c r="J549" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B549,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
       <c r="N549" s="5" t="s">
@@ -25413,7 +25413,7 @@
         <v>1282</v>
       </c>
       <c r="J550" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B550,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
       <c r="N550" s="5" t="s">
@@ -25447,7 +25447,7 @@
         <v>1288</v>
       </c>
       <c r="J551" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B551,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -25478,7 +25478,7 @@
         <v>1293</v>
       </c>
       <c r="J552" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B552,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -25509,7 +25509,7 @@
         <v>1294</v>
       </c>
       <c r="J553" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B553,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -25540,7 +25540,7 @@
         <v>1308</v>
       </c>
       <c r="J554" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B554,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -25571,7 +25571,7 @@
         <v>1327</v>
       </c>
       <c r="J555" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B555,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -25602,7 +25602,7 @@
         <v>1330</v>
       </c>
       <c r="J556" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B556,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
       <c r="K556" s="3"/>
@@ -25646,7 +25646,7 @@
         <v>1351</v>
       </c>
       <c r="J557" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B557,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -25677,7 +25677,7 @@
         <v>1355</v>
       </c>
       <c r="J558" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B558,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -25708,7 +25708,7 @@
         <v>1356</v>
       </c>
       <c r="J559" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B559,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -25739,7 +25739,7 @@
         <v>1368</v>
       </c>
       <c r="J560" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B560,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -25770,7 +25770,7 @@
         <v>1373</v>
       </c>
       <c r="J561" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B561,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -25801,7 +25801,7 @@
         <v>1382</v>
       </c>
       <c r="J562" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B562,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -25832,7 +25832,7 @@
         <v>1401</v>
       </c>
       <c r="J563" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B563,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -25863,7 +25863,7 @@
         <v>1402</v>
       </c>
       <c r="J564" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B564,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -25894,7 +25894,7 @@
         <v>1408</v>
       </c>
       <c r="J565" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B565,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -25925,7 +25925,7 @@
         <v>1424</v>
       </c>
       <c r="J566" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B566,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -25956,7 +25956,7 @@
         <v>1433</v>
       </c>
       <c r="J567" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B567,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -25987,7 +25987,7 @@
         <v>1445</v>
       </c>
       <c r="J568" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B568,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26018,7 +26018,7 @@
         <v>1454</v>
       </c>
       <c r="J569" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B569,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26049,7 +26049,7 @@
         <v>1457</v>
       </c>
       <c r="J570" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B570,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26080,7 +26080,7 @@
         <v>1458</v>
       </c>
       <c r="J571" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B571,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26111,7 +26111,7 @@
         <v>1469</v>
       </c>
       <c r="J572" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B572,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26142,7 +26142,7 @@
         <v>1485</v>
       </c>
       <c r="J573" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B573,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26173,7 +26173,7 @@
         <v>1493</v>
       </c>
       <c r="J574" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B574,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26204,7 +26204,7 @@
         <v>1497</v>
       </c>
       <c r="J575" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B575,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26235,7 +26235,7 @@
         <v>1505</v>
       </c>
       <c r="J576" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B576,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26266,7 +26266,7 @@
         <v>1506</v>
       </c>
       <c r="J577" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B577,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26297,7 +26297,7 @@
         <v>1526</v>
       </c>
       <c r="J578" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B578,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26328,7 +26328,7 @@
         <v>1535</v>
       </c>
       <c r="J579" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B579,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26359,7 +26359,7 @@
         <v>1542</v>
       </c>
       <c r="J580" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B580,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26390,7 +26390,7 @@
         <v>1552</v>
       </c>
       <c r="J581" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f>VLOOKUP(B581,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26421,7 +26421,7 @@
         <v>1556</v>
       </c>
       <c r="J582" s="32" t="str">
-        <f t="shared" ref="J582:J645" si="16">VLOOKUP(B582,$L$5:$M$14,2)</f>
+        <f>VLOOKUP(B582,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26452,7 +26452,7 @@
         <v>1561</v>
       </c>
       <c r="J583" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B583,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26483,7 +26483,7 @@
         <v>1573</v>
       </c>
       <c r="J584" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B584,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26514,7 +26514,7 @@
         <v>1577</v>
       </c>
       <c r="J585" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B585,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26545,7 +26545,7 @@
         <v>1588</v>
       </c>
       <c r="J586" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B586,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26576,7 +26576,7 @@
         <v>1591</v>
       </c>
       <c r="J587" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B587,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26607,7 +26607,7 @@
         <v>1606</v>
       </c>
       <c r="J588" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B588,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26638,7 +26638,7 @@
         <v>1618</v>
       </c>
       <c r="J589" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B589,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26669,7 +26669,7 @@
         <v>1042</v>
       </c>
       <c r="J590" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B590,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26700,7 +26700,7 @@
         <v>1086</v>
       </c>
       <c r="J591" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B591,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26731,7 +26731,7 @@
         <v>923</v>
       </c>
       <c r="J592" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B592,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26762,7 +26762,7 @@
         <v>1014</v>
       </c>
       <c r="J593" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B593,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -26793,7 +26793,7 @@
         <v>942</v>
       </c>
       <c r="J594" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B594,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
       <c r="L594" s="2"/>
@@ -26825,7 +26825,7 @@
         <v>964</v>
       </c>
       <c r="J595" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B595,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -26856,7 +26856,7 @@
         <v>981</v>
       </c>
       <c r="J596" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B596,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -26887,7 +26887,7 @@
         <v>1609</v>
       </c>
       <c r="J597" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B597,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -26918,7 +26918,7 @@
         <v>882</v>
       </c>
       <c r="J598" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B598,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -26949,7 +26949,7 @@
         <v>1598</v>
       </c>
       <c r="J599" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B599,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -26980,7 +26980,7 @@
         <v>1008</v>
       </c>
       <c r="J600" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B600,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -27011,7 +27011,7 @@
         <v>1007</v>
       </c>
       <c r="J601" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B601,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -27042,7 +27042,7 @@
         <v>1208</v>
       </c>
       <c r="J602" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B602,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -27073,7 +27073,7 @@
         <v>890</v>
       </c>
       <c r="J603" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B603,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -27104,7 +27104,7 @@
         <v>899</v>
       </c>
       <c r="J604" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B604,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -27135,7 +27135,7 @@
         <v>901</v>
       </c>
       <c r="J605" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B605,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -27166,7 +27166,7 @@
         <v>914</v>
       </c>
       <c r="J606" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B606,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -27197,7 +27197,7 @@
         <v>943</v>
       </c>
       <c r="J607" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B607,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
       <c r="N607" s="5" t="s">
@@ -27231,7 +27231,7 @@
         <v>948</v>
       </c>
       <c r="J608" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B608,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
       <c r="N608" s="5" t="s">
@@ -27265,7 +27265,7 @@
         <v>958</v>
       </c>
       <c r="J609" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B609,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
       <c r="N609" s="5" t="s">
@@ -27299,7 +27299,7 @@
         <v>1110</v>
       </c>
       <c r="J610" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B610,$L$5:$M$14,2)</f>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -27330,7 +27330,7 @@
         <v>1020</v>
       </c>
       <c r="J611" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B611,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
       <c r="K611" s="3"/>
@@ -27374,7 +27374,7 @@
         <v>1050</v>
       </c>
       <c r="J612" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B612,$L$5:$M$14,2)</f>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -27405,7 +27405,7 @@
         <v>1365</v>
       </c>
       <c r="J613" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B613,$L$5:$M$14,2)</f>
         <v>9/10(수)~9/11(목)</v>
       </c>
       <c r="K613" s="3"/>
@@ -27449,7 +27449,7 @@
         <v>1116</v>
       </c>
       <c r="J614" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B614,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -27480,7 +27480,7 @@
         <v>1119</v>
       </c>
       <c r="J615" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B615,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
       <c r="K615" s="3"/>
@@ -27524,7 +27524,7 @@
         <v>1134</v>
       </c>
       <c r="J616" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B616,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
       <c r="K616" s="3"/>
@@ -27568,7 +27568,7 @@
         <v>1146</v>
       </c>
       <c r="J617" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B617,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -27599,7 +27599,7 @@
         <v>1159</v>
       </c>
       <c r="J618" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B618,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -27630,7 +27630,7 @@
         <v>1160</v>
       </c>
       <c r="J619" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B619,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
       <c r="K619" s="3"/>
@@ -27674,7 +27674,7 @@
         <v>1172</v>
       </c>
       <c r="J620" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B620,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
       <c r="K620" s="3"/>
@@ -27718,7 +27718,7 @@
         <v>1181</v>
       </c>
       <c r="J621" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B621,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
       <c r="K621" s="3"/>
@@ -27762,7 +27762,7 @@
         <v>1194</v>
       </c>
       <c r="J622" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B622,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -27793,7 +27793,7 @@
         <v>1217</v>
       </c>
       <c r="J623" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B623,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -27824,7 +27824,7 @@
         <v>1221</v>
       </c>
       <c r="J624" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B624,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -27855,7 +27855,7 @@
         <v>1222</v>
       </c>
       <c r="J625" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B625,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -27886,7 +27886,7 @@
         <v>1238</v>
       </c>
       <c r="J626" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B626,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -27917,7 +27917,7 @@
         <v>1240</v>
       </c>
       <c r="J627" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B627,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -27948,7 +27948,7 @@
         <v>932</v>
       </c>
       <c r="J628" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B628,$L$5:$M$14,2)</f>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -27979,7 +27979,7 @@
         <v>1249</v>
       </c>
       <c r="J629" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B629,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -28010,7 +28010,7 @@
         <v>1264</v>
       </c>
       <c r="J630" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B630,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -28041,7 +28041,7 @@
         <v>1276</v>
       </c>
       <c r="J631" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B631,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
       <c r="K631" s="3"/>
@@ -28085,7 +28085,7 @@
         <v>1290</v>
       </c>
       <c r="J632" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B632,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -28116,7 +28116,7 @@
         <v>1291</v>
       </c>
       <c r="J633" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B633,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -28147,7 +28147,7 @@
         <v>1304</v>
       </c>
       <c r="J634" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B634,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -28178,7 +28178,7 @@
         <v>1307</v>
       </c>
       <c r="J635" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B635,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -28209,7 +28209,7 @@
         <v>1309</v>
       </c>
       <c r="J636" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B636,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -28240,7 +28240,7 @@
         <v>1316</v>
       </c>
       <c r="J637" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B637,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -28271,7 +28271,7 @@
         <v>1324</v>
       </c>
       <c r="J638" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B638,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -28302,7 +28302,7 @@
         <v>1329</v>
       </c>
       <c r="J639" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B639,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -28333,7 +28333,7 @@
         <v>1348</v>
       </c>
       <c r="J640" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B640,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -28364,7 +28364,7 @@
         <v>1367</v>
       </c>
       <c r="J641" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B641,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -28395,7 +28395,7 @@
         <v>1381</v>
       </c>
       <c r="J642" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B642,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -28426,7 +28426,7 @@
         <v>1393</v>
       </c>
       <c r="J643" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B643,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -28457,7 +28457,7 @@
         <v>1404</v>
       </c>
       <c r="J644" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B644,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -28488,7 +28488,7 @@
         <v>1405</v>
       </c>
       <c r="J645" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(B645,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -28519,7 +28519,7 @@
         <v>1415</v>
       </c>
       <c r="J646" s="32" t="str">
-        <f t="shared" ref="J646:J709" si="17">VLOOKUP(B646,$L$5:$M$14,2)</f>
+        <f>VLOOKUP(B646,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -28550,7 +28550,7 @@
         <v>1427</v>
       </c>
       <c r="J647" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B647,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -28581,7 +28581,7 @@
         <v>1439</v>
       </c>
       <c r="J648" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B648,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -28612,7 +28612,7 @@
         <v>1443</v>
       </c>
       <c r="J649" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B649,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -28643,7 +28643,7 @@
         <v>1456</v>
       </c>
       <c r="J650" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B650,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -28674,7 +28674,7 @@
         <v>1461</v>
       </c>
       <c r="J651" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B651,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -28705,7 +28705,7 @@
         <v>1465</v>
       </c>
       <c r="J652" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B652,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -28736,7 +28736,7 @@
         <v>1483</v>
       </c>
       <c r="J653" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B653,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -28767,7 +28767,7 @@
         <v>1495</v>
       </c>
       <c r="J654" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B654,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -28798,7 +28798,7 @@
         <v>1507</v>
       </c>
       <c r="J655" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B655,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -28829,7 +28829,7 @@
         <v>1513</v>
       </c>
       <c r="J656" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B656,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -28860,7 +28860,7 @@
         <v>1521</v>
       </c>
       <c r="J657" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B657,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -28891,7 +28891,7 @@
         <v>1527</v>
       </c>
       <c r="J658" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B658,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -28922,7 +28922,7 @@
         <v>1536</v>
       </c>
       <c r="J659" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B659,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -28953,7 +28953,7 @@
         <v>1540</v>
       </c>
       <c r="J660" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B660,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -28984,7 +28984,7 @@
         <v>1555</v>
       </c>
       <c r="J661" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B661,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -29015,7 +29015,7 @@
         <v>1557</v>
       </c>
       <c r="J662" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B662,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -29046,7 +29046,7 @@
         <v>1560</v>
       </c>
       <c r="J663" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B663,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -29077,7 +29077,7 @@
         <v>1572</v>
       </c>
       <c r="J664" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B664,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -29108,7 +29108,7 @@
         <v>1589</v>
       </c>
       <c r="J665" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B665,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -29139,7 +29139,7 @@
         <v>1602</v>
       </c>
       <c r="J666" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B666,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -29170,7 +29170,7 @@
         <v>1617</v>
       </c>
       <c r="J667" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B667,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -29201,7 +29201,7 @@
         <v>885</v>
       </c>
       <c r="J668" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B668,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -29232,7 +29232,7 @@
         <v>944</v>
       </c>
       <c r="J669" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B669,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -29263,7 +29263,7 @@
         <v>952</v>
       </c>
       <c r="J670" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B670,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -29294,7 +29294,7 @@
         <v>990</v>
       </c>
       <c r="J671" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B671,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -29325,7 +29325,7 @@
         <v>993</v>
       </c>
       <c r="J672" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B672,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -29356,7 +29356,7 @@
         <v>1113</v>
       </c>
       <c r="J673" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B673,$L$5:$M$14,2)</f>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -29387,7 +29387,7 @@
         <v>924</v>
       </c>
       <c r="J674" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B674,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -29418,7 +29418,7 @@
         <v>1624</v>
       </c>
       <c r="J675" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B675,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -29449,7 +29449,7 @@
         <v>1133</v>
       </c>
       <c r="J676" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B676,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -29480,7 +29480,7 @@
         <v>1224</v>
       </c>
       <c r="J677" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B677,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
       <c r="K677" s="3"/>
@@ -29524,7 +29524,7 @@
         <v>930</v>
       </c>
       <c r="J678" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B678,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -29555,7 +29555,7 @@
         <v>1032</v>
       </c>
       <c r="J679" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B679,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -29586,7 +29586,7 @@
         <v>907</v>
       </c>
       <c r="J680" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B680,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -29617,7 +29617,7 @@
         <v>913</v>
       </c>
       <c r="J681" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B681,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
       <c r="K681" s="3"/>
@@ -29661,7 +29661,7 @@
         <v>918</v>
       </c>
       <c r="J682" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B682,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
       <c r="K682" s="3"/>
@@ -29705,7 +29705,7 @@
         <v>928</v>
       </c>
       <c r="J683" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B683,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -29736,7 +29736,7 @@
         <v>941</v>
       </c>
       <c r="J684" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B684,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -29767,7 +29767,7 @@
         <v>989</v>
       </c>
       <c r="J685" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B685,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
       <c r="K685" s="3"/>
@@ -29811,7 +29811,7 @@
         <v>1002</v>
       </c>
       <c r="J686" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B686,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -29842,7 +29842,7 @@
         <v>1006</v>
       </c>
       <c r="J687" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B687,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -29873,7 +29873,7 @@
         <v>1026</v>
       </c>
       <c r="J688" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B688,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
       <c r="K688" s="3"/>
@@ -29917,7 +29917,7 @@
         <v>1031</v>
       </c>
       <c r="J689" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B689,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -29948,7 +29948,7 @@
         <v>1040</v>
       </c>
       <c r="J690" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B690,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -29979,7 +29979,7 @@
         <v>1068</v>
       </c>
       <c r="J691" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B691,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
       <c r="K691" s="3"/>
@@ -30023,7 +30023,7 @@
         <v>1084</v>
       </c>
       <c r="J692" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B692,$L$5:$M$14,2)</f>
         <v>9/1(월)~9/2(화)</v>
       </c>
       <c r="N692" s="5" t="s">
@@ -30057,7 +30057,7 @@
         <v>1125</v>
       </c>
       <c r="J693" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B693,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
       <c r="N693" s="5" t="s">
@@ -30091,7 +30091,7 @@
         <v>1131</v>
       </c>
       <c r="J694" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B694,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -30122,7 +30122,7 @@
         <v>1135</v>
       </c>
       <c r="J695" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B695,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -30153,7 +30153,7 @@
         <v>1138</v>
       </c>
       <c r="J696" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B696,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -30184,7 +30184,7 @@
         <v>1144</v>
       </c>
       <c r="J697" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B697,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
       <c r="K697" s="3"/>
@@ -30228,7 +30228,7 @@
         <v>1150</v>
       </c>
       <c r="J698" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B698,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
       <c r="K698" s="3"/>
@@ -30272,7 +30272,7 @@
         <v>1152</v>
       </c>
       <c r="J699" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B699,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -30303,7 +30303,7 @@
         <v>1158</v>
       </c>
       <c r="J700" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B700,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -30334,7 +30334,7 @@
         <v>1174</v>
       </c>
       <c r="J701" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B701,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -30365,7 +30365,7 @@
         <v>1185</v>
       </c>
       <c r="J702" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B702,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -30396,7 +30396,7 @@
         <v>1192</v>
       </c>
       <c r="J703" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B703,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -30429,7 +30429,7 @@
         <v>1012</v>
       </c>
       <c r="J704" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B704,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K704" s="39" t="s">
@@ -30472,7 +30472,7 @@
         <v>1226</v>
       </c>
       <c r="J705" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B705,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
       <c r="N705" s="5" t="s">
@@ -30506,7 +30506,7 @@
         <v>1228</v>
       </c>
       <c r="J706" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B706,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -30537,7 +30537,7 @@
         <v>1236</v>
       </c>
       <c r="J707" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B707,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -30568,7 +30568,7 @@
         <v>1241</v>
       </c>
       <c r="J708" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B708,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -30599,7 +30599,7 @@
         <v>1250</v>
       </c>
       <c r="J709" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f>VLOOKUP(B709,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -30630,7 +30630,7 @@
         <v>1253</v>
       </c>
       <c r="J710" s="32" t="str">
-        <f t="shared" ref="J710:J749" si="18">VLOOKUP(B710,$L$5:$M$14,2)</f>
+        <f>VLOOKUP(B710,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -30661,7 +30661,7 @@
         <v>1257</v>
       </c>
       <c r="J711" s="32" t="str">
-        <f t="shared" si="18"/>
+        <f>VLOOKUP(B711,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -30692,7 +30692,7 @@
         <v>1262</v>
       </c>
       <c r="J712" s="32" t="str">
-        <f t="shared" si="18"/>
+        <f>VLOOKUP(B712,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -30723,7 +30723,7 @@
         <v>1278</v>
       </c>
       <c r="J713" s="32" t="str">
-        <f t="shared" si="18"/>
+        <f>VLOOKUP(B713,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -30754,7 +30754,7 @@
         <v>1302</v>
       </c>
       <c r="J714" s="32" t="str">
-        <f t="shared" si="18"/>
+        <f>VLOOKUP(B714,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -30785,7 +30785,7 @@
         <v>1303</v>
       </c>
       <c r="J715" s="32" t="str">
-        <f t="shared" si="18"/>
+        <f>VLOOKUP(B715,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -30816,7 +30816,7 @@
         <v>1338</v>
       </c>
       <c r="J716" s="32" t="str">
-        <f t="shared" si="18"/>
+        <f>VLOOKUP(B716,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -30847,7 +30847,7 @@
         <v>1341</v>
       </c>
       <c r="J717" s="32" t="str">
-        <f t="shared" si="18"/>
+        <f>VLOOKUP(B717,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -30878,7 +30878,7 @@
         <v>1349</v>
       </c>
       <c r="J718" s="32" t="str">
-        <f t="shared" si="18"/>
+        <f>VLOOKUP(B718,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -30909,7 +30909,7 @@
         <v>1352</v>
       </c>
       <c r="J719" s="32" t="str">
-        <f t="shared" si="18"/>
+        <f>VLOOKUP(B719,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -30940,7 +30940,7 @@
         <v>1353</v>
       </c>
       <c r="J720" s="32" t="str">
-        <f t="shared" si="18"/>
+        <f>VLOOKUP(B720,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -30971,7 +30971,7 @@
         <v>1363</v>
       </c>
       <c r="J721" s="32" t="str">
-        <f t="shared" si="18"/>
+        <f>VLOOKUP(B721,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -31002,7 +31002,7 @@
         <v>1370</v>
       </c>
       <c r="J722" s="32" t="str">
-        <f t="shared" si="18"/>
+        <f>VLOOKUP(B722,$L$5:$M$14,2)</f>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -31033,7 +31033,7 @@
         <v>1379</v>
       </c>
       <c r="J723" s="32" t="str">
-        <f t="shared" si="18"/>
+        <f>VLOOKUP(B723,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -31064,7 +31064,7 @@
         <v>1396</v>
       </c>
       <c r="J724" s="32" t="str">
-        <f t="shared" si="18"/>
+        <f>VLOOKUP(B724,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -31095,7 +31095,7 @@
         <v>1399</v>
       </c>
       <c r="J725" s="32" t="str">
-        <f t="shared" si="18"/>
+        <f>VLOOKUP(B725,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -31126,7 +31126,7 @@
         <v>1416</v>
       </c>
       <c r="J726" s="32" t="str">
-        <f t="shared" si="18"/>
+        <f>VLOOKUP(B726,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -31157,7 +31157,7 @@
         <v>1425</v>
       </c>
       <c r="J727" s="32" t="str">
-        <f t="shared" si="18"/>
+        <f>VLOOKUP(B727,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -31188,7 +31188,7 @@
         <v>1430</v>
       </c>
       <c r="J728" s="32" t="str">
-        <f t="shared" si="18"/>
+        <f>VLOOKUP(B728,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -31219,7 +31219,7 @@
         <v>1452</v>
       </c>
       <c r="J729" s="32" t="str">
-        <f t="shared" si="18"/>
+        <f>VLOOKUP(B729,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -31250,7 +31250,7 @@
         <v>1455</v>
       </c>
       <c r="J730" s="32" t="str">
-        <f t="shared" si="18"/>
+        <f>VLOOKUP(B730,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -31281,7 +31281,7 @@
         <v>1470</v>
       </c>
       <c r="J731" s="32" t="str">
-        <f t="shared" si="18"/>
+        <f>VLOOKUP(B731,$L$5:$M$14,2)</f>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -31312,7 +31312,7 @@
         <v>1472</v>
       </c>
       <c r="J732" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f>VLOOKUP(B732,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -31343,7 +31343,7 @@
         <v>1489</v>
       </c>
       <c r="J733" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f>VLOOKUP(B733,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -31374,7 +31374,7 @@
         <v>1498</v>
       </c>
       <c r="J734" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f>VLOOKUP(B734,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -31405,7 +31405,7 @@
         <v>1502</v>
       </c>
       <c r="J735" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f>VLOOKUP(B735,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -31436,7 +31436,7 @@
         <v>1511</v>
       </c>
       <c r="J736" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f>VLOOKUP(B736,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -31467,7 +31467,7 @@
         <v>1529</v>
       </c>
       <c r="J737" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f>VLOOKUP(B737,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -31498,7 +31498,7 @@
         <v>1531</v>
       </c>
       <c r="J738" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f>VLOOKUP(B738,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -31529,7 +31529,7 @@
         <v>1541</v>
       </c>
       <c r="J739" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f>VLOOKUP(B739,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -31560,7 +31560,7 @@
         <v>1603</v>
       </c>
       <c r="J740" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f>VLOOKUP(B740,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -31591,7 +31591,7 @@
         <v>1608</v>
       </c>
       <c r="J741" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f>VLOOKUP(B741,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -31622,7 +31622,7 @@
         <v>1613</v>
       </c>
       <c r="J742" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f>VLOOKUP(B742,$L$5:$M$14,2)</f>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
@@ -31653,7 +31653,7 @@
         <v>1544</v>
       </c>
       <c r="J743" s="32" t="str">
-        <f t="shared" si="18"/>
+        <f>VLOOKUP(B743,$L$5:$M$14,2)</f>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -31684,7 +31684,7 @@
         <v>1631</v>
       </c>
       <c r="J744" s="17" t="str">
-        <f t="shared" si="18"/>
+        <f>VLOOKUP(B744,$L$5:$M$14,2)</f>
         <v>8/25(월)~8/26(화)</v>
       </c>
     </row>
@@ -31715,7 +31715,7 @@
         <v>1633</v>
       </c>
       <c r="J745" s="17" t="str">
-        <f t="shared" si="18"/>
+        <f>VLOOKUP(B745,$L$5:$M$14,2)</f>
         <v>8/27(수)~8/28(목)</v>
       </c>
     </row>
@@ -31746,7 +31746,7 @@
         <v>895</v>
       </c>
       <c r="J746" s="32" t="str">
-        <f t="shared" si="18"/>
+        <f>VLOOKUP(B746,$L$5:$M$14,2)</f>
         <v>9/1(월)~9/2(화)</v>
       </c>
     </row>
@@ -31777,7 +31777,7 @@
         <v>1369</v>
       </c>
       <c r="J747" s="32" t="str">
-        <f t="shared" si="18"/>
+        <f>VLOOKUP(B747,$L$5:$M$14,2)</f>
         <v>9/8(월)~9/9(화)</v>
       </c>
     </row>
@@ -31808,7 +31808,7 @@
         <v>1403</v>
       </c>
       <c r="J748" s="32" t="str">
-        <f t="shared" si="18"/>
+        <f>VLOOKUP(B748,$L$5:$M$14,2)</f>
         <v>9/10(수)~9/11(목)</v>
       </c>
     </row>
@@ -31839,7 +31839,7 @@
         <v>1635</v>
       </c>
       <c r="J749" s="17" t="str">
-        <f t="shared" si="18"/>
+        <f>VLOOKUP(B749,$L$5:$M$14,2)</f>
         <v>9/15(월)~9/16(화)</v>
       </c>
       <c r="K749" s="43"/>
@@ -31874,7 +31874,7 @@
         <v>1641</v>
       </c>
       <c r="J750" s="17" t="str">
-        <f t="shared" ref="J750:J753" si="19">VLOOKUP(B750,$L$5:$M$14,2)</f>
+        <f t="shared" ref="J750:J753" si="12">VLOOKUP(B750,$L$5:$M$14,2)</f>
         <v>9/17(수)~9/18(목)</v>
       </c>
     </row>
@@ -31905,7 +31905,7 @@
         <v>1643</v>
       </c>
       <c r="J751" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>9/22(월)~9/23(화)</v>
       </c>
     </row>
@@ -31936,7 +31936,7 @@
         <v>1645</v>
       </c>
       <c r="J752" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>9/29(월)~9/30(화)</v>
       </c>
     </row>
@@ -31967,7 +31967,7 @@
         <v>1648</v>
       </c>
       <c r="J753" s="17" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>10/1(수)~10/2(목)</v>
       </c>
     </row>
